--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\HadesCompletion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\HadesGame-Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7683DF79-981C-45E1-9166-DEA708C2995F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C5F889-87D7-4A10-8B8C-DA66367CD4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="27255" windowHeight="13845" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1787,9 +1787,6 @@
     <t>Phalanx Shot</t>
   </si>
   <si>
-    <t>Proud Breaing</t>
-  </si>
-  <si>
     <t>Sure Footing</t>
   </si>
   <si>
@@ -2057,9 +2054,6 @@
     <t>Halting Flourish</t>
   </si>
   <si>
-    <t>Duo-Boons</t>
-  </si>
-  <si>
     <t>Curse of Longing (Aphrodite &amp; Ares)</t>
   </si>
   <si>
@@ -2315,24 +2309,6 @@
     <t>Theseus &amp; Asterius - The Adamant Rail</t>
   </si>
   <si>
-    <t>Zeus - The Stygian Blade</t>
-  </si>
-  <si>
-    <t>Zeus - The Heart-Seeking Bow</t>
-  </si>
-  <si>
-    <t>Zeus - The Shield of Chaos</t>
-  </si>
-  <si>
-    <t>Zeus - The Eternal Spear</t>
-  </si>
-  <si>
-    <t>Zeus - The Twin Fists</t>
-  </si>
-  <si>
-    <t>Zeus - The Adamant Rail</t>
-  </si>
-  <si>
     <t>The Stygian Blade - Breaching Slash</t>
   </si>
   <si>
@@ -2733,6 +2709,30 @@
   </si>
   <si>
     <t>Aspects - Malphon (The Twin Fists)</t>
+  </si>
+  <si>
+    <t>Duo Boons</t>
+  </si>
+  <si>
+    <t>Hades - The Stygian Blade</t>
+  </si>
+  <si>
+    <t>Hades - The Heart-Seeking Bow</t>
+  </si>
+  <si>
+    <t>Hades - The Shield of Chaos</t>
+  </si>
+  <si>
+    <t>Hades - The Eternal Spear</t>
+  </si>
+  <si>
+    <t>Hades - The Twin Fists</t>
+  </si>
+  <si>
+    <t>Hades - The Adamant Rail</t>
+  </si>
+  <si>
+    <t>Proud Bearing</t>
   </si>
 </sst>
 </file>
@@ -2856,7 +2856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2879,6 +2879,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3215,8 +3216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4659E671-0874-FE42-985B-794BDDF20B74}">
   <dimension ref="A1:DY75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AQ3" sqref="AQ3"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3309,388 +3310,388 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>522</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>523</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>572</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>524</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>525</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>526</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="V1" s="12" t="s">
         <v>527</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="Y1" s="12" t="s">
         <v>528</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="AB1" s="12" t="s">
         <v>529</v>
       </c>
       <c r="AC1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="AD1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="AE1" s="12" t="s">
         <v>530</v>
       </c>
       <c r="AF1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="AG1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="AH1" s="12" t="s">
-        <v>673</v>
+        <v>891</v>
       </c>
       <c r="AI1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="AJ1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="AK1" s="12" t="s">
         <v>25</v>
       </c>
       <c r="AL1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="AM1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="AN1" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AO1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="AP1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="AQ1" s="12" t="s">
         <v>311</v>
       </c>
       <c r="AR1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="AS1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="AT1" s="12" t="s">
         <v>316</v>
       </c>
       <c r="AU1" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="BA1" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="BB1" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="BC1" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="BD1" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="BE1" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="BF1" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="BG1" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="BH1" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="BJ1" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="BK1" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="BL1" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="BM1" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="BN1" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="BO1" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="BP1" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="BQ1" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="BR1" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="BS1" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="BT1" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="BU1" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="BV1" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="BW1" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="BX1" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="BY1" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="BZ1" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="CA1" s="12" t="s">
         <v>886</v>
       </c>
-      <c r="AV1" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="AW1" s="12" t="s">
-        <v>892</v>
-      </c>
-      <c r="AX1" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="AY1" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="AZ1" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="BA1" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="BB1" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="BC1" s="14" t="s">
-        <v>837</v>
-      </c>
-      <c r="BD1" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="BE1" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="BF1" s="14" t="s">
-        <v>838</v>
-      </c>
-      <c r="BG1" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="BH1" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="BI1" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="BJ1" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="BK1" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="BL1" s="12" t="s">
-        <v>893</v>
-      </c>
-      <c r="BM1" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="BN1" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="BO1" s="12" t="s">
-        <v>895</v>
-      </c>
-      <c r="BP1" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="BQ1" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="BR1" s="12" t="s">
-        <v>896</v>
-      </c>
-      <c r="BS1" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="BT1" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="BU1" s="12" t="s">
-        <v>897</v>
-      </c>
-      <c r="BV1" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="BW1" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="BX1" s="12" t="s">
-        <v>898</v>
-      </c>
-      <c r="BY1" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="BZ1" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="CA1" s="12" t="s">
-        <v>894</v>
-      </c>
       <c r="CB1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="CC1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="CD1" s="12" t="s">
         <v>72</v>
       </c>
       <c r="CE1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="CF1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="CG1" s="12" t="s">
         <v>79</v>
       </c>
       <c r="CH1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="CI1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="CJ1" s="12" t="s">
         <v>87</v>
       </c>
       <c r="CK1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="CL1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="CM1" s="12" t="s">
         <v>115</v>
       </c>
       <c r="CN1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="CO1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="CP1" s="12" t="s">
         <v>129</v>
       </c>
       <c r="CQ1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="CR1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="CS1" s="12" t="s">
         <v>140</v>
       </c>
       <c r="CT1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="CU1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="CV1" s="12" t="s">
         <v>151</v>
       </c>
       <c r="CW1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="CX1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="CY1" s="12" t="s">
         <v>162</v>
       </c>
       <c r="CZ1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="DA1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="DB1" s="12" t="s">
         <v>175</v>
       </c>
       <c r="DC1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="DD1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="DE1" s="12" t="s">
         <v>250</v>
       </c>
       <c r="DF1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="DG1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="DH1" s="12" t="s">
         <v>261</v>
       </c>
       <c r="DI1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="DJ1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="DK1" s="12" t="s">
         <v>298</v>
       </c>
       <c r="DL1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="DM1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="DN1" s="12" t="s">
         <v>312</v>
       </c>
       <c r="DO1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="DP1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="DQ1" s="12" t="s">
         <v>313</v>
       </c>
       <c r="DR1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="DS1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="DT1" s="12" t="s">
         <v>314</v>
       </c>
       <c r="DU1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="DV1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="DW1" s="12" t="s">
         <v>315</v>
       </c>
       <c r="DX1" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="DY1" s="12" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.25">
@@ -3700,7 +3701,9 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>531</v>
       </c>
@@ -3719,7 +3722,7 @@
       <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="16" t="s">
         <v>559</v>
       </c>
       <c r="K2" s="2">
@@ -3734,7 +3737,7 @@
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q2" s="2">
         <v>1</v>
@@ -3743,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T2" s="2">
         <v>1</v>
@@ -3752,14 +3755,14 @@
         <v>1</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="W2" s="2">
         <v>1</v>
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z2" s="2">
         <v>1</v>
@@ -3768,21 +3771,21 @@
         <v>1</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AC2" s="2">
         <v>1</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AF2" s="2">
         <v>1</v>
       </c>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AI2" s="2">
         <v>1</v>
@@ -3796,7 +3799,7 @@
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="AO2">
         <v>3</v>
@@ -3821,7 +3824,7 @@
       </c>
       <c r="AV2" s="4"/>
       <c r="AW2" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AX2" s="4">
         <v>1</v>
@@ -3830,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="BA2" s="4">
         <v>1</v>
@@ -3839,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="15" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="BD2" s="4">
         <v>1</v>
@@ -3848,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="BF2" s="10" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="BG2" s="4">
         <v>1</v>
@@ -3996,12 +3999,14 @@
       </c>
       <c r="DV2" s="4"/>
       <c r="DW2" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="DX2" s="4">
         <v>1</v>
       </c>
-      <c r="DY2" s="4"/>
+      <c r="DY2" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -4042,7 +4047,7 @@
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Q3" s="2">
         <v>1</v>
@@ -4051,14 +4056,14 @@
         <v>1</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="T3" s="2">
         <v>1</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="W3" s="2">
         <v>1</v>
@@ -4067,21 +4072,21 @@
         <v>1</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Z3" s="2">
         <v>1</v>
       </c>
       <c r="AA3" s="2"/>
       <c r="AB3" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AC3" s="2">
         <v>1</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AF3" s="2">
         <v>1</v>
@@ -4090,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI3" s="2">
         <v>1</v>
@@ -4104,7 +4109,7 @@
       </c>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="AO3">
         <v>3</v>
@@ -4129,7 +4134,7 @@
       </c>
       <c r="AV3" s="4"/>
       <c r="AW3" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AX3" s="4">
         <v>1</v>
@@ -4138,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="AZ3" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="BA3" s="4">
         <v>1</v>
@@ -4147,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="BC3" s="15" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="BD3" s="4">
         <v>1</v>
@@ -4156,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="BF3" s="10" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="BG3" s="4">
         <v>1</v>
@@ -4350,21 +4355,21 @@
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Q4" s="2">
         <v>1</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="T4" s="2">
         <v>1</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="W4" s="2">
         <v>1</v>
@@ -4373,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Z4" s="2">
         <v>1</v>
@@ -4382,14 +4387,14 @@
         <v>1</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AC4" s="2">
         <v>1</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AF4" s="2">
         <v>1</v>
@@ -4398,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AI4" s="2">
         <v>1</v>
@@ -4412,7 +4417,7 @@
       </c>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="AO4">
         <v>3</v>
@@ -4437,7 +4442,7 @@
       </c>
       <c r="AV4" s="4"/>
       <c r="AW4" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AX4" s="4">
         <v>1</v>
@@ -4446,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="AZ4" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="BA4" s="4">
         <v>1</v>
@@ -4455,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="BC4" s="15" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="BD4" s="4">
         <v>1</v>
@@ -4464,14 +4469,14 @@
         <v>1</v>
       </c>
       <c r="BF4" s="10" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="BG4" s="4">
         <v>1</v>
       </c>
       <c r="BH4" s="4"/>
       <c r="BI4" s="10" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="BJ4" s="4">
         <v>1</v>
@@ -4664,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Q5" s="2">
         <v>1</v>
@@ -4673,14 +4678,14 @@
         <v>1</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T5" s="2">
         <v>1</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="W5" s="2">
         <v>1</v>
@@ -4689,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Z5" s="2">
         <v>1</v>
@@ -4698,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AC5" s="2">
         <v>1</v>
@@ -4707,14 +4712,14 @@
         <v>1</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AF5" s="2">
         <v>1</v>
       </c>
       <c r="AG5" s="2"/>
       <c r="AH5" s="9" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AI5" s="2">
         <v>1</v>
@@ -4730,7 +4735,7 @@
       </c>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="AO5">
         <v>3</v>
@@ -4755,7 +4760,7 @@
       </c>
       <c r="AV5" s="4"/>
       <c r="AW5" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AX5" s="4">
         <v>1</v>
@@ -4764,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="BA5" s="4">
         <v>1</v>
@@ -4773,14 +4778,14 @@
         <v>1</v>
       </c>
       <c r="BC5" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="BD5" s="4">
         <v>1</v>
       </c>
       <c r="BE5" s="4"/>
       <c r="BF5" s="10" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="BG5" s="4">
         <v>1</v>
@@ -4980,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Q6" s="2">
         <v>1</v>
@@ -4989,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="T6" s="2">
         <v>1</v>
@@ -4998,14 +5003,14 @@
         <v>1</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="W6" s="2">
         <v>1</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Z6" s="2">
         <v>1</v>
@@ -5014,7 +5019,7 @@
         <v>1</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AC6" s="2">
         <v>1</v>
@@ -5023,14 +5028,14 @@
         <v>1</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AF6" s="2">
         <v>1</v>
       </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AI6" s="2">
         <v>1</v>
@@ -5044,7 +5049,7 @@
       </c>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="AO6">
         <v>3</v>
@@ -5069,7 +5074,7 @@
       </c>
       <c r="AV6" s="4"/>
       <c r="AW6" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AX6" s="4">
         <v>1</v>
@@ -5078,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="BA6" s="4">
         <v>1</v>
@@ -5087,14 +5092,14 @@
         <v>1</v>
       </c>
       <c r="BC6" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="BD6" s="4">
         <v>1</v>
       </c>
       <c r="BE6" s="4"/>
       <c r="BF6" s="10" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="BG6" s="4">
         <v>1</v>
@@ -5290,7 +5295,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q7" s="2">
         <v>1</v>
@@ -5299,7 +5304,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T7" s="2">
         <v>1</v>
@@ -5308,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="W7" s="2">
         <v>1</v>
@@ -5317,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Z7" s="2">
         <v>1</v>
@@ -5326,14 +5331,14 @@
         <v>1</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC7" s="2">
         <v>1</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AF7" s="2">
         <v>1</v>
@@ -5342,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AI7" s="2">
         <v>1</v>
@@ -5356,7 +5361,7 @@
       </c>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="AO7">
         <v>3</v>
@@ -5381,7 +5386,7 @@
       </c>
       <c r="AV7" s="4"/>
       <c r="AW7" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AX7" s="4">
         <v>1</v>
@@ -5390,7 +5395,7 @@
         <v>1</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="BA7" s="4">
         <v>1</v>
@@ -5399,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="BC7" s="15" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="BD7" s="4">
         <v>1</v>
@@ -5408,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="BF7" s="10" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="BG7" s="4">
         <v>1</v>
@@ -5579,14 +5584,14 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q8" s="2">
         <v>1</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T8" s="2">
         <v>1</v>
@@ -5595,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="W8" s="2">
         <v>1</v>
@@ -5604,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Z8" s="2">
         <v>1</v>
@@ -5613,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AC8" s="2">
         <v>1</v>
@@ -5622,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AF8" s="2">
         <v>1</v>
@@ -5631,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AI8" s="2">
         <v>1</v>
@@ -5645,7 +5650,7 @@
       </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="AO8">
         <v>3</v>
@@ -5670,7 +5675,7 @@
       </c>
       <c r="AV8" s="4"/>
       <c r="AW8" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AX8" s="4">
         <v>1</v>
@@ -5679,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="AZ8" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="BA8" s="4">
         <v>1</v>
@@ -5688,14 +5693,14 @@
         <v>1</v>
       </c>
       <c r="BC8" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="BD8" s="4">
         <v>1</v>
       </c>
       <c r="BE8" s="4"/>
       <c r="BF8" s="10" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="BG8" s="4">
         <v>1</v>
@@ -5865,21 +5870,23 @@
         <v>1</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q9" s="2">
         <v>1</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
       <c r="S9" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T9" s="2">
         <v>1</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="W9" s="2">
         <v>1</v>
@@ -5888,14 +5895,14 @@
         <v>1</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Z9" s="2">
         <v>1</v>
       </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AC9" s="2">
         <v>1</v>
@@ -5904,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AF9" s="2">
         <v>1</v>
@@ -5913,7 +5920,7 @@
         <v>1</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AI9" s="2">
         <v>1</v>
@@ -5927,7 +5934,7 @@
       </c>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="AO9">
         <v>3</v>
@@ -5950,7 +5957,7 @@
       </c>
       <c r="AV9" s="4"/>
       <c r="AW9" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AX9" s="4">
         <v>1</v>
@@ -5959,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="BA9" s="4">
         <v>1</v>
@@ -5968,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="BC9" s="15" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="BD9" s="4">
         <v>1</v>
@@ -5977,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="BF9" s="10" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="BG9" s="4">
         <v>1</v>
@@ -6141,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q10" s="2">
         <v>1</v>
@@ -6150,14 +6157,14 @@
         <v>1</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="T10" s="2">
         <v>1</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="W10" s="2">
         <v>1</v>
@@ -6166,28 +6173,28 @@
         <v>1</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Z10" s="2">
         <v>1</v>
       </c>
       <c r="AA10" s="2"/>
       <c r="AB10" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AC10" s="2">
         <v>1</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AF10" s="2">
         <v>1</v>
       </c>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AI10" s="2">
         <v>1</v>
@@ -6201,7 +6208,7 @@
       </c>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="AO10">
         <v>3</v>
@@ -6226,7 +6233,7 @@
       </c>
       <c r="AV10" s="4"/>
       <c r="AW10" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AX10" s="4">
         <v>1</v>
@@ -6235,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="AZ10" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="BA10" s="4">
         <v>1</v>
@@ -6244,7 +6251,7 @@
         <v>1</v>
       </c>
       <c r="BC10" s="15" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="BD10" s="4">
         <v>1</v>
@@ -6253,7 +6260,7 @@
         <v>1</v>
       </c>
       <c r="BF10" s="10" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="BG10" s="4">
         <v>1</v>
@@ -6417,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Q11" s="2">
         <v>1</v>
@@ -6426,14 +6433,14 @@
         <v>1</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="T11" s="2">
         <v>1</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="W11" s="2">
         <v>1</v>
@@ -6442,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Z11" s="2">
         <v>1</v>
@@ -6451,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AC11" s="2">
         <v>1</v>
@@ -6460,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AF11" s="2">
         <v>1</v>
@@ -6469,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AI11" s="2">
         <v>1</v>
@@ -6483,7 +6490,7 @@
       </c>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="AO11">
         <v>3</v>
@@ -6508,7 +6515,7 @@
       </c>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AX11" s="4">
         <v>1</v>
@@ -6517,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="AZ11" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="BA11" s="4">
         <v>1</v>
@@ -6526,14 +6533,14 @@
         <v>1</v>
       </c>
       <c r="BC11" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="BD11" s="4">
         <v>1</v>
       </c>
       <c r="BE11" s="4"/>
       <c r="BF11" s="10" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="BG11" s="4">
         <v>1</v>
@@ -6688,21 +6695,23 @@
         <v>1</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>583</v>
+        <v>898</v>
       </c>
       <c r="N12" s="2">
         <v>1</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q12" s="2">
         <v>1</v>
       </c>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
       <c r="S12" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T12" s="2">
         <v>1</v>
@@ -6711,14 +6720,14 @@
         <v>1</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="W12" s="2">
         <v>1</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Z12" s="2">
         <v>1</v>
@@ -6727,21 +6736,21 @@
         <v>1</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AC12" s="2">
         <v>1</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AF12" s="2">
         <v>1</v>
       </c>
       <c r="AG12" s="2"/>
-      <c r="AH12" s="2" t="s">
-        <v>684</v>
+      <c r="AH12" s="9" t="s">
+        <v>682</v>
       </c>
       <c r="AI12" s="2">
         <v>1</v>
@@ -6755,7 +6764,7 @@
       </c>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="AO12">
         <v>3</v>
@@ -6780,7 +6789,7 @@
       </c>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AX12" s="4">
         <v>1</v>
@@ -6789,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="AZ12" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="BA12" s="4">
         <v>1</v>
@@ -6798,14 +6807,14 @@
         <v>1</v>
       </c>
       <c r="BC12" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="BD12" s="4">
         <v>1</v>
       </c>
       <c r="BE12" s="4"/>
       <c r="BF12" s="10" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="BG12" s="4">
         <v>1</v>
@@ -6912,7 +6921,7 @@
       </c>
       <c r="DV12" s="4"/>
       <c r="DW12" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="DX12" s="4">
         <v>1</v>
@@ -6951,7 +6960,7 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N13" s="2">
         <v>1</v>
@@ -6960,14 +6969,14 @@
         <v>1</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q13" s="2">
         <v>1</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T13" s="2">
         <v>1</v>
@@ -6976,14 +6985,14 @@
         <v>1</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="W13" s="2">
         <v>1</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="Z13" s="2">
         <v>1</v>
@@ -6992,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AC13" s="2">
         <v>1</v>
@@ -7001,14 +7010,14 @@
         <v>1</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AF13" s="2">
         <v>1</v>
       </c>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AI13" s="2">
         <v>1</v>
@@ -7022,7 +7031,7 @@
       </c>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="AO13">
         <v>3</v>
@@ -7047,7 +7056,7 @@
       </c>
       <c r="AV13" s="4"/>
       <c r="AW13" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AX13" s="4">
         <v>1</v>
@@ -7056,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="AZ13" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="BA13" s="4">
         <v>1</v>
@@ -7065,7 +7074,7 @@
         <v>1</v>
       </c>
       <c r="BC13" s="15" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="BD13" s="4">
         <v>1</v>
@@ -7074,14 +7083,14 @@
         <v>1</v>
       </c>
       <c r="BF13" s="10" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="BG13" s="4">
         <v>1</v>
       </c>
       <c r="BH13" s="4"/>
       <c r="BI13" s="10" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="BJ13" s="4">
         <v>1</v>
@@ -7221,14 +7230,14 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T14" s="2">
         <v>1</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="W14" s="2">
         <v>1</v>
@@ -7237,14 +7246,14 @@
         <v>1</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Z14" s="2">
         <v>1</v>
       </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AC14" s="2">
         <v>1</v>
@@ -7253,14 +7262,14 @@
         <v>1</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AF14" s="2">
         <v>1</v>
       </c>
       <c r="AG14" s="2"/>
       <c r="AH14" s="9" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AI14" s="2">
         <v>1</v>
@@ -7276,7 +7285,7 @@
       </c>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="AO14">
         <v>3</v>
@@ -7301,14 +7310,14 @@
       </c>
       <c r="AV14" s="4"/>
       <c r="AW14" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="AX14" s="4">
         <v>1</v>
       </c>
       <c r="AY14" s="4"/>
       <c r="AZ14" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="BA14" s="4">
         <v>1</v>
@@ -7317,21 +7326,21 @@
         <v>1</v>
       </c>
       <c r="BC14" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="BD14" s="4">
         <v>1</v>
       </c>
       <c r="BE14" s="4"/>
       <c r="BF14" s="10" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="BG14" s="4">
         <v>1</v>
       </c>
       <c r="BH14" s="4"/>
       <c r="BI14" s="10" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="BJ14" s="4">
         <v>1</v>
@@ -7450,7 +7459,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T15" s="2">
         <v>1</v>
@@ -7459,21 +7468,21 @@
         <v>1</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="W15" s="2">
         <v>1</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Z15" s="2">
         <v>1</v>
       </c>
       <c r="AA15" s="2"/>
       <c r="AB15" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AC15" s="2">
         <v>1</v>
@@ -7482,7 +7491,7 @@
         <v>1</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AF15" s="2">
         <v>1</v>
@@ -7491,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AI15" s="2">
         <v>1</v>
@@ -7505,7 +7514,7 @@
       </c>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="AO15">
         <v>3</v>
@@ -7530,7 +7539,7 @@
       </c>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="AX15" s="4">
         <v>1</v>
@@ -7539,7 +7548,7 @@
         <v>1</v>
       </c>
       <c r="AZ15" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="BA15" s="4">
         <v>1</v>
@@ -7548,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="BC15" s="15" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="BD15" s="4">
         <v>1</v>
@@ -7557,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="BF15" s="10" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="BG15" s="4">
         <v>1</v>
@@ -7676,7 +7685,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="W16" s="2">
         <v>1</v>
@@ -7691,7 +7700,7 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AF16" s="2">
         <v>1</v>
@@ -7700,7 +7709,7 @@
         <v>1</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AI16" s="2">
         <v>1</v>
@@ -7714,7 +7723,7 @@
       </c>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="AO16">
         <v>3</v>
@@ -7737,14 +7746,14 @@
       </c>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AX16" s="4">
         <v>1</v>
       </c>
       <c r="AY16" s="4"/>
       <c r="AZ16" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="BA16" s="4">
         <v>1</v>
@@ -7753,14 +7762,14 @@
         <v>1</v>
       </c>
       <c r="BC16" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="BD16" s="4">
         <v>1</v>
       </c>
       <c r="BE16" s="4"/>
       <c r="BF16" s="10" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="BG16" s="4">
         <v>1</v>
@@ -7889,7 +7898,7 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AF17" s="2">
         <v>1</v>
@@ -7898,7 +7907,7 @@
         <v>1</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AI17" s="2">
         <v>1</v>
@@ -7912,7 +7921,7 @@
       </c>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="AO17">
         <v>3</v>
@@ -7937,14 +7946,14 @@
       </c>
       <c r="AV17" s="4"/>
       <c r="AW17" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AX17" s="4">
         <v>1</v>
       </c>
       <c r="AY17" s="4"/>
       <c r="AZ17" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="BA17" s="4">
         <v>1</v>
@@ -7953,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="BC17" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="BD17" s="4">
         <v>1</v>
@@ -8082,7 +8091,7 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AF18" s="2">
         <v>1</v>
@@ -8091,7 +8100,7 @@
         <v>1</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AI18" s="2">
         <v>1</v>
@@ -8105,7 +8114,7 @@
       </c>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="AO18">
         <v>3</v>
@@ -8128,7 +8137,7 @@
       </c>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AX18" s="4">
         <v>1</v>
@@ -8137,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="AZ18" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="BA18" s="4">
         <v>1</v>
@@ -8146,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="BC18" s="15" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="BD18" s="4">
         <v>1</v>
@@ -8270,7 +8279,7 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="5" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="AF19" s="2">
         <v>1</v>
@@ -8279,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AI19" s="2">
         <v>1</v>
@@ -8293,7 +8302,7 @@
       </c>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="AO19">
         <v>3</v>
@@ -8316,14 +8325,14 @@
       </c>
       <c r="AV19" s="4"/>
       <c r="AW19" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AX19" s="4">
         <v>1</v>
       </c>
       <c r="AY19" s="4"/>
       <c r="AZ19" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="BA19" s="4">
         <v>1</v>
@@ -8332,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="BC19" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="BD19" s="4">
         <v>1</v>
@@ -8456,14 +8465,14 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AF20" s="2">
         <v>1</v>
       </c>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AI20" s="2">
         <v>1</v>
@@ -8477,7 +8486,7 @@
       </c>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="AO20">
         <v>3</v>
@@ -8500,7 +8509,7 @@
       </c>
       <c r="AV20" s="4"/>
       <c r="AW20" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AX20" s="4">
         <v>1</v>
@@ -8509,7 +8518,7 @@
         <v>1</v>
       </c>
       <c r="AZ20" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="BA20" s="4">
         <v>1</v>
@@ -8518,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="BC20" s="15" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="BD20" s="4">
         <v>1</v>
@@ -8527,7 +8536,7 @@
         <v>1</v>
       </c>
       <c r="BI20" s="10" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="BJ20" s="4">
         <v>1</v>
@@ -8636,14 +8645,14 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AF21" s="2">
         <v>1</v>
       </c>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AI21" s="2">
         <v>1</v>
@@ -8657,7 +8666,7 @@
       </c>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="AO21">
         <v>3</v>
@@ -8680,14 +8689,14 @@
       </c>
       <c r="AV21" s="4"/>
       <c r="AW21" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AX21" s="4">
         <v>1</v>
       </c>
       <c r="AY21" s="4"/>
       <c r="AZ21" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="BA21" s="4">
         <v>1</v>
@@ -8696,7 +8705,7 @@
         <v>1</v>
       </c>
       <c r="BC21" s="15" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="BD21" s="4">
         <v>1</v>
@@ -8817,7 +8826,7 @@
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AI22" s="2">
         <v>1</v>
@@ -8831,7 +8840,7 @@
       </c>
       <c r="AM22" s="2"/>
       <c r="AN22" s="2" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="AO22">
         <v>3</v>
@@ -8854,7 +8863,7 @@
       </c>
       <c r="AV22" s="4"/>
       <c r="AW22" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="AX22" s="4">
         <v>1</v>
@@ -8863,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="AZ22" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="BA22" s="4">
         <v>1</v>
@@ -8872,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="BC22" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="BD22" s="4">
         <v>1</v>
@@ -8939,7 +8948,7 @@
       </c>
       <c r="DS22" s="4"/>
       <c r="DT22" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="DU22" s="4">
         <v>1</v>
@@ -8985,7 +8994,7 @@
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AI23" s="2">
         <v>1</v>
@@ -8999,7 +9008,7 @@
       </c>
       <c r="AM23" s="2"/>
       <c r="AN23" s="2" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="AO23">
         <v>3</v>
@@ -9022,7 +9031,7 @@
       </c>
       <c r="AV23" s="4"/>
       <c r="AW23" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AX23" s="4">
         <v>1</v>
@@ -9031,7 +9040,7 @@
         <v>1</v>
       </c>
       <c r="AZ23" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="BA23" s="4">
         <v>1</v>
@@ -9040,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="BC23" s="15" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="BD23" s="4">
         <v>1</v>
@@ -9157,7 +9166,7 @@
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AI24" s="2">
         <v>1</v>
@@ -9171,13 +9180,13 @@
       </c>
       <c r="AM24" s="2"/>
       <c r="AN24" s="2" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="AO24">
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="s">
         <v>367</v>
@@ -9194,14 +9203,14 @@
       </c>
       <c r="AV24" s="4"/>
       <c r="AW24" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AX24" s="4">
         <v>1</v>
       </c>
       <c r="AY24" s="4"/>
       <c r="AZ24" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="BA24" s="4">
         <v>1</v>
@@ -9210,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="BC24" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="BD24" s="4">
         <v>1</v>
@@ -9315,7 +9324,7 @@
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AI25" s="2">
         <v>1</v>
@@ -9329,7 +9338,7 @@
       </c>
       <c r="AM25" s="2"/>
       <c r="AN25" s="2" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="AO25">
         <v>3</v>
@@ -9354,7 +9363,7 @@
       </c>
       <c r="AV25" s="4"/>
       <c r="AW25" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AX25" s="4">
         <v>1</v>
@@ -9363,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="AZ25" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="BA25" s="4">
         <v>1</v>
@@ -9372,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="BC25" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="BD25" s="4">
         <v>1</v>
@@ -9431,7 +9440,7 @@
       </c>
       <c r="DS25" s="4"/>
       <c r="DT25" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="DU25" s="4">
         <v>1</v>
@@ -9477,7 +9486,7 @@
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AI26" s="2">
         <v>1</v>
@@ -9487,7 +9496,7 @@
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="2" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="AO26">
         <v>3</v>
@@ -9510,7 +9519,7 @@
       </c>
       <c r="AV26" s="4"/>
       <c r="AW26" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AX26" s="4">
         <v>1</v>
@@ -9519,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="AZ26" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="BA26" s="4">
         <v>1</v>
@@ -9528,12 +9537,14 @@
         <v>1</v>
       </c>
       <c r="BC26" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="BD26" s="4">
         <v>1</v>
       </c>
-      <c r="BE26" s="4"/>
+      <c r="BE26" s="4">
+        <v>1</v>
+      </c>
       <c r="BU26" s="2"/>
       <c r="BV26" s="2"/>
       <c r="BW26" s="2"/>
@@ -9581,7 +9592,7 @@
       </c>
       <c r="DS26" s="4"/>
       <c r="DT26" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="DU26" s="4">
         <v>1</v>
@@ -9627,7 +9638,7 @@
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AI27" s="2">
         <v>1</v>
@@ -9656,14 +9667,14 @@
       </c>
       <c r="AV27" s="4"/>
       <c r="AW27" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="AX27" s="4">
         <v>1</v>
       </c>
       <c r="AY27" s="4"/>
       <c r="AZ27" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="BA27" s="4">
         <v>1</v>
@@ -9672,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="BC27" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="BD27" s="4">
         <v>1</v>
@@ -9765,7 +9776,7 @@
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AI28" s="2">
         <v>1</v>
@@ -9791,7 +9802,7 @@
       </c>
       <c r="AV28" s="4"/>
       <c r="AW28" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AX28" s="4">
         <v>1</v>
@@ -9801,7 +9812,7 @@
       <c r="BA28" s="4"/>
       <c r="BB28" s="4"/>
       <c r="BC28" s="15" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="BD28" s="4">
         <v>1</v>
@@ -9896,7 +9907,7 @@
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AI29" s="2">
         <v>1</v>
@@ -9920,7 +9931,7 @@
       </c>
       <c r="AV29" s="4"/>
       <c r="AW29" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AX29" s="4">
         <v>1</v>
@@ -9932,7 +9943,7 @@
       <c r="BA29" s="4"/>
       <c r="BB29" s="4"/>
       <c r="BC29" s="15" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="BD29" s="4">
         <v>1</v>
@@ -10033,7 +10044,7 @@
       </c>
       <c r="AS30" s="4"/>
       <c r="AW30" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AX30" s="4">
         <v>1</v>
@@ -10043,7 +10054,7 @@
       <c r="BA30" s="4"/>
       <c r="BB30" s="4"/>
       <c r="BC30" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="BD30" s="4">
         <v>1</v>
@@ -10142,7 +10153,7 @@
       </c>
       <c r="AS31" s="4"/>
       <c r="AW31" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AX31" s="4">
         <v>1</v>
@@ -10154,12 +10165,14 @@
       <c r="BA31" s="4"/>
       <c r="BB31" s="4"/>
       <c r="BC31" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="BD31" s="4">
         <v>1</v>
       </c>
-      <c r="BE31" s="4"/>
+      <c r="BE31" s="4">
+        <v>1</v>
+      </c>
       <c r="BU31" s="2"/>
       <c r="BV31" s="2"/>
       <c r="BW31" s="2"/>
@@ -10246,7 +10259,7 @@
       </c>
       <c r="AS32" s="4"/>
       <c r="AW32" s="4" t="s">
-        <v>759</v>
+        <v>892</v>
       </c>
       <c r="AX32" s="4">
         <v>1</v>
@@ -10256,7 +10269,7 @@
       <c r="BA32" s="4"/>
       <c r="BB32" s="4"/>
       <c r="BC32" s="15" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="BD32" s="4">
         <v>1</v>
@@ -10350,7 +10363,7 @@
       </c>
       <c r="AS33" s="4"/>
       <c r="AW33" s="4" t="s">
-        <v>760</v>
+        <v>893</v>
       </c>
       <c r="AX33" s="4">
         <v>1</v>
@@ -10360,7 +10373,7 @@
       <c r="BA33" s="4"/>
       <c r="BB33" s="4"/>
       <c r="BC33" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="BD33" s="4">
         <v>1</v>
@@ -10452,17 +10465,19 @@
       </c>
       <c r="AS34" s="4"/>
       <c r="AW34" s="4" t="s">
-        <v>761</v>
+        <v>894</v>
       </c>
       <c r="AX34" s="4">
         <v>1</v>
       </c>
-      <c r="AY34" s="4"/>
+      <c r="AY34" s="4">
+        <v>1</v>
+      </c>
       <c r="AZ34" s="4"/>
       <c r="BA34" s="4"/>
       <c r="BB34" s="4"/>
       <c r="BC34" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="BD34" s="4">
         <v>1</v>
@@ -10554,7 +10569,7 @@
       </c>
       <c r="AS35" s="4"/>
       <c r="AW35" s="4" t="s">
-        <v>762</v>
+        <v>895</v>
       </c>
       <c r="AX35" s="4">
         <v>1</v>
@@ -10564,7 +10579,7 @@
       <c r="BA35" s="4"/>
       <c r="BB35" s="4"/>
       <c r="BC35" s="15" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="BD35" s="4">
         <v>1</v>
@@ -10658,7 +10673,7 @@
       </c>
       <c r="AS36" s="4"/>
       <c r="AW36" s="4" t="s">
-        <v>763</v>
+        <v>896</v>
       </c>
       <c r="AX36" s="4">
         <v>1</v>
@@ -10668,7 +10683,7 @@
       <c r="BA36" s="4"/>
       <c r="BB36" s="4"/>
       <c r="BC36" s="15" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="BD36" s="4">
         <v>1</v>
@@ -10762,7 +10777,7 @@
       </c>
       <c r="AS37" s="4"/>
       <c r="AW37" s="4" t="s">
-        <v>764</v>
+        <v>897</v>
       </c>
       <c r="AX37" s="4">
         <v>1</v>
@@ -10772,7 +10787,7 @@
       <c r="BA37" s="4"/>
       <c r="BB37" s="4"/>
       <c r="BC37" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="BD37" s="4">
         <v>1</v>
@@ -10870,7 +10885,7 @@
       <c r="BA38" s="4"/>
       <c r="BB38" s="4"/>
       <c r="BC38" s="15" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="BD38" s="4">
         <v>1</v>
@@ -10963,7 +10978,7 @@
       <c r="BA39" s="4"/>
       <c r="BB39" s="4"/>
       <c r="BC39" s="15" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="BD39" s="4">
         <v>1</v>
@@ -11056,7 +11071,7 @@
       <c r="BA40" s="4"/>
       <c r="BB40" s="4"/>
       <c r="BC40" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="BD40" s="4">
         <v>1</v>
@@ -11147,7 +11162,7 @@
       <c r="BA41" s="4"/>
       <c r="BB41" s="4"/>
       <c r="BC41" s="15" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="BD41" s="4">
         <v>1</v>
@@ -11227,7 +11242,7 @@
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
       <c r="BC42" s="15" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="BD42" s="4">
         <v>1</v>
@@ -11307,7 +11322,7 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
       <c r="BC43" s="15" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="BD43" s="4">
         <v>1</v>
@@ -11387,7 +11402,7 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
       <c r="BC44" s="15" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="BD44" s="4">
         <v>1</v>
@@ -11460,7 +11475,7 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
       <c r="BC45" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="BD45" s="4">
         <v>1</v>
@@ -11531,7 +11546,7 @@
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
       <c r="BC46" s="15" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="BD46" s="4">
         <v>1</v>
@@ -11604,7 +11619,7 @@
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
       <c r="BC47" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="BD47" s="4">
         <v>1</v>
@@ -11675,7 +11690,7 @@
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
       <c r="BC48" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="BD48" s="4">
         <v>1</v>
@@ -11746,7 +11761,7 @@
       <c r="AO49" s="2"/>
       <c r="AP49" s="2"/>
       <c r="BC49" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="BD49" s="4">
         <v>1</v>
@@ -11819,7 +11834,7 @@
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
       <c r="BC50" s="15" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="BD50" s="4">
         <v>1</v>
@@ -11892,7 +11907,7 @@
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
       <c r="BC51" s="15" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="BD51" s="4">
         <v>1</v>
@@ -11965,7 +11980,7 @@
       <c r="AO52" s="2"/>
       <c r="AP52" s="2"/>
       <c r="BC52" s="15" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="BD52" s="4">
         <v>1</v>
@@ -12038,7 +12053,7 @@
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
       <c r="BC53" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="BD53" s="4">
         <v>1</v>
@@ -12109,7 +12124,7 @@
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
       <c r="BC54" s="15" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="BD54" s="4">
         <v>1</v>
@@ -12182,7 +12197,7 @@
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
       <c r="BC55" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="BD55" s="4">
         <v>1</v>
@@ -12253,7 +12268,7 @@
       <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
       <c r="BC56" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="BD56" s="4">
         <v>1</v>
@@ -12319,7 +12334,7 @@
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
       <c r="BC57" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="BD57" s="4">
         <v>1</v>
@@ -12386,7 +12401,7 @@
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
       <c r="BC58" s="15" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="BD58" s="4">
         <v>1</v>
@@ -12455,7 +12470,7 @@
       <c r="AI59" s="2"/>
       <c r="AJ59" s="2"/>
       <c r="BC59" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="BD59" s="4">
         <v>1</v>
@@ -12507,7 +12522,7 @@
       <c r="AI60" s="2"/>
       <c r="AJ60" s="2"/>
       <c r="BC60" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="BD60" s="4">
         <v>1</v>
@@ -12559,7 +12574,7 @@
       <c r="AI61" s="2"/>
       <c r="AJ61" s="2"/>
       <c r="BC61" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="BD61" s="4">
         <v>1</v>
@@ -12611,7 +12626,7 @@
       <c r="AI62" s="2"/>
       <c r="AJ62" s="2"/>
       <c r="BC62" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="BD62" s="4">
         <v>1</v>
@@ -12662,7 +12677,7 @@
       <c r="AI63" s="2"/>
       <c r="AJ63" s="2"/>
       <c r="BC63" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="BD63" s="4">
         <v>1</v>
@@ -12713,7 +12728,7 @@
       <c r="AI64" s="2"/>
       <c r="AJ64" s="2"/>
       <c r="BC64" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="BD64" s="4">
         <v>1</v>
@@ -12764,7 +12779,7 @@
       <c r="AI65" s="2"/>
       <c r="AJ65" s="2"/>
       <c r="BC65" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="BD65" s="4">
         <v>1</v>
@@ -12815,7 +12830,7 @@
       <c r="AI66" s="2"/>
       <c r="AJ66" s="2"/>
       <c r="BC66" s="15" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="BD66" s="4">
         <v>1</v>
@@ -12868,7 +12883,7 @@
       <c r="AI67" s="2"/>
       <c r="AJ67" s="2"/>
       <c r="BC67" s="15" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="BD67" s="4">
         <v>1</v>
@@ -12921,7 +12936,7 @@
       <c r="AI68" s="2"/>
       <c r="AJ68" s="2"/>
       <c r="BC68" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="BD68" s="4">
         <v>1</v>
@@ -12972,7 +12987,7 @@
       <c r="AI69" s="2"/>
       <c r="AJ69" s="2"/>
       <c r="BC69" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="BD69" s="4">
         <v>1</v>
@@ -12988,7 +13003,7 @@
     </row>
     <row r="70" spans="2:108" x14ac:dyDescent="0.25">
       <c r="BC70" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="BD70" s="4">
         <v>1</v>
@@ -13004,7 +13019,7 @@
     </row>
     <row r="71" spans="2:108" x14ac:dyDescent="0.25">
       <c r="BC71" s="15" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="BD71" s="4">
         <v>1</v>
@@ -13022,7 +13037,7 @@
     </row>
     <row r="72" spans="2:108" x14ac:dyDescent="0.25">
       <c r="BC72" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="BD72" s="4">
         <v>1</v>
@@ -13038,7 +13053,7 @@
     </row>
     <row r="73" spans="2:108" x14ac:dyDescent="0.25">
       <c r="BC73" s="15" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="BD73" s="4">
         <v>1</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\HadesGame-Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C5F889-87D7-4A10-8B8C-DA66367CD4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F45532-31BC-43EC-85A5-943524FB426A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="902">
   <si>
     <t>Fated List of Minor Prophecies</t>
   </si>
@@ -2733,6 +2733,15 @@
   </si>
   <si>
     <t>Proud Bearing</t>
+  </si>
+  <si>
+    <t>Huge Catch</t>
+  </si>
+  <si>
+    <t>Defiance</t>
+  </si>
+  <si>
+    <t>The Stygian Blade - Dash Nova</t>
   </si>
 </sst>
 </file>
@@ -2809,7 +2818,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2824,18 +2833,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2843,20 +2846,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2864,9 +2858,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2878,8 +2870,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3216,8 +3211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4659E671-0874-FE42-985B-794BDDF20B74}">
   <dimension ref="A1:DY75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="Q55" sqref="Q55"/>
+    <sheetView tabSelected="1" topLeftCell="DK1" workbookViewId="0">
+      <selection activeCell="DS12" sqref="DS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3305,397 +3300,397 @@
     <col min="128" max="129" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:129" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AI1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AK1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AL1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AM1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AN1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AO1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AP1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AR1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AS1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AT1" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AU1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AV1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AW1" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AX1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AY1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="AZ1" s="13" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BA1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BB1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="BC1" s="14" t="s">
+      <c r="BC1" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BD1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BE1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="BF1" s="14" t="s">
+      <c r="BF1" s="12" t="s">
         <v>830</v>
       </c>
-      <c r="BG1" s="12" t="s">
+      <c r="BG1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="BH1" s="12" t="s">
+      <c r="BH1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="BI1" s="14" t="s">
+      <c r="BI1" s="12" t="s">
         <v>831</v>
       </c>
-      <c r="BJ1" s="12" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="BK1" s="12" t="s">
+      <c r="BK1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="BL1" s="12" t="s">
+      <c r="BL1" s="10" t="s">
         <v>885</v>
       </c>
-      <c r="BM1" s="12" t="s">
+      <c r="BM1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="BN1" s="12" t="s">
+      <c r="BN1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="BO1" s="12" t="s">
+      <c r="BO1" s="10" t="s">
         <v>887</v>
       </c>
-      <c r="BP1" s="12" t="s">
+      <c r="BP1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="BQ1" s="12" t="s">
+      <c r="BQ1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="BR1" s="12" t="s">
+      <c r="BR1" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="BS1" s="12" t="s">
+      <c r="BS1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="BT1" s="12" t="s">
+      <c r="BT1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="BU1" s="12" t="s">
+      <c r="BU1" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="BV1" s="12" t="s">
+      <c r="BV1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="BW1" s="12" t="s">
+      <c r="BW1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="BX1" s="12" t="s">
+      <c r="BX1" s="10" t="s">
         <v>890</v>
       </c>
-      <c r="BY1" s="12" t="s">
+      <c r="BY1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="BZ1" s="12" t="s">
+      <c r="BZ1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="CA1" s="12" t="s">
+      <c r="CA1" s="10" t="s">
         <v>886</v>
       </c>
-      <c r="CB1" s="12" t="s">
+      <c r="CB1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="CC1" s="12" t="s">
+      <c r="CC1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="CD1" s="12" t="s">
+      <c r="CD1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="CE1" s="12" t="s">
+      <c r="CE1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="CF1" s="12" t="s">
+      <c r="CF1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="CG1" s="12" t="s">
+      <c r="CG1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="CH1" s="12" t="s">
+      <c r="CH1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="CI1" s="12" t="s">
+      <c r="CI1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="CJ1" s="12" t="s">
+      <c r="CJ1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="12" t="s">
+      <c r="CK1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="CL1" s="12" t="s">
+      <c r="CL1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="CM1" s="12" t="s">
+      <c r="CM1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="CN1" s="12" t="s">
+      <c r="CN1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="CO1" s="12" t="s">
+      <c r="CO1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="CP1" s="12" t="s">
+      <c r="CP1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="CQ1" s="12" t="s">
+      <c r="CQ1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="CR1" s="12" t="s">
+      <c r="CR1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="CS1" s="12" t="s">
+      <c r="CS1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="CT1" s="12" t="s">
+      <c r="CT1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="CU1" s="12" t="s">
+      <c r="CU1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="CV1" s="12" t="s">
+      <c r="CV1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="CW1" s="12" t="s">
+      <c r="CW1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="CX1" s="12" t="s">
+      <c r="CX1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="CY1" s="12" t="s">
+      <c r="CY1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="CZ1" s="12" t="s">
+      <c r="CZ1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="DA1" s="12" t="s">
+      <c r="DA1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="DB1" s="12" t="s">
+      <c r="DB1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="DC1" s="12" t="s">
+      <c r="DC1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="DD1" s="12" t="s">
+      <c r="DD1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="DE1" s="12" t="s">
+      <c r="DE1" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="DF1" s="12" t="s">
+      <c r="DF1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="DG1" s="12" t="s">
+      <c r="DG1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="DH1" s="12" t="s">
+      <c r="DH1" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="DI1" s="12" t="s">
+      <c r="DI1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="DJ1" s="12" t="s">
+      <c r="DJ1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="DK1" s="12" t="s">
+      <c r="DK1" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="DL1" s="12" t="s">
+      <c r="DL1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="DM1" s="12" t="s">
+      <c r="DM1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="DN1" s="12" t="s">
+      <c r="DN1" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="DO1" s="12" t="s">
+      <c r="DO1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="DP1" s="12" t="s">
+      <c r="DP1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="DQ1" s="12" t="s">
+      <c r="DQ1" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="DR1" s="12" t="s">
+      <c r="DR1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="DS1" s="12" t="s">
+      <c r="DS1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="DT1" s="12" t="s">
+      <c r="DT1" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="DU1" s="12" t="s">
+      <c r="DU1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="DV1" s="12" t="s">
+      <c r="DV1" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="DW1" s="12" t="s">
+      <c r="DW1" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="DX1" s="12" t="s">
+      <c r="DX1" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="DY1" s="12" t="s">
+      <c r="DY1" s="10" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -3722,7 +3717,7 @@
       <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>559</v>
       </c>
       <c r="K2" s="2">
@@ -3798,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="AM2" s="2"/>
-      <c r="AN2" t="s">
+      <c r="AN2" s="13" t="s">
         <v>852</v>
       </c>
       <c r="AO2">
@@ -3807,7 +3802,7 @@
       <c r="AP2">
         <v>2</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>345</v>
       </c>
       <c r="AR2" s="4">
@@ -3816,14 +3811,16 @@
       <c r="AS2" s="4">
         <v>1</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AT2" s="13" t="s">
         <v>317</v>
       </c>
       <c r="AU2" s="4">
         <v>1</v>
       </c>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4" t="s">
+      <c r="AV2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="15" t="s">
         <v>727</v>
       </c>
       <c r="AX2" s="4">
@@ -3832,7 +3829,7 @@
       <c r="AY2" s="4">
         <v>1</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="AZ2" s="15" t="s">
         <v>701</v>
       </c>
       <c r="BA2" s="4">
@@ -3841,23 +3838,21 @@
       <c r="BB2" s="4">
         <v>1</v>
       </c>
-      <c r="BC2" s="15" t="s">
-        <v>757</v>
+      <c r="BC2" t="s">
+        <v>817</v>
       </c>
       <c r="BD2" s="4">
         <v>1</v>
       </c>
-      <c r="BE2" s="4">
-        <v>1</v>
-      </c>
-      <c r="BF2" s="10" t="s">
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="8" t="s">
         <v>832</v>
       </c>
       <c r="BG2" s="4">
         <v>1</v>
       </c>
       <c r="BH2" s="4"/>
-      <c r="BI2" s="10" t="s">
+      <c r="BI2" s="8" t="s">
         <v>35</v>
       </c>
       <c r="BJ2" s="4">
@@ -3887,6 +3882,9 @@
       <c r="BV2">
         <v>1</v>
       </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
       <c r="BX2" t="s">
         <v>69</v>
       </c>
@@ -3917,52 +3915,69 @@
       <c r="CK2">
         <v>5</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CM2" s="13" t="s">
         <v>88</v>
       </c>
       <c r="CN2">
         <v>1</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2" s="13" t="s">
         <v>95</v>
       </c>
       <c r="CQ2">
         <v>1</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2" s="13" t="s">
         <v>104</v>
       </c>
       <c r="CT2">
         <v>1</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2" s="13" t="s">
         <v>152</v>
       </c>
       <c r="CW2" s="4">
         <v>1</v>
       </c>
-      <c r="CX2" s="4"/>
-      <c r="CY2" t="s">
+      <c r="CX2" s="4">
+        <v>1</v>
+      </c>
+      <c r="CY2" s="13" t="s">
         <v>163</v>
       </c>
       <c r="CZ2" s="4">
         <v>1</v>
       </c>
-      <c r="DA2" s="4"/>
-      <c r="DB2" t="s">
+      <c r="DA2" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB2" s="13" t="s">
         <v>176</v>
       </c>
       <c r="DC2" s="4">
         <v>1</v>
       </c>
-      <c r="DD2" s="4"/>
-      <c r="DE2" t="s">
+      <c r="DD2" s="4">
+        <v>1</v>
+      </c>
+      <c r="DE2" s="13" t="s">
         <v>251</v>
       </c>
       <c r="DF2" s="4">
         <v>1</v>
       </c>
-      <c r="DG2" s="4"/>
+      <c r="DG2" s="4">
+        <v>1</v>
+      </c>
       <c r="DH2" t="s">
         <v>262</v>
       </c>
@@ -3998,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="DV2" s="4"/>
-      <c r="DW2" t="s">
+      <c r="DW2" s="13" t="s">
         <v>882</v>
       </c>
       <c r="DX2" s="4">
@@ -4009,7 +4024,7 @@
       </c>
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -4039,13 +4054,15 @@
         <v>1</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="14" t="s">
         <v>574</v>
       </c>
       <c r="N3" s="2">
         <v>1</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
       <c r="P3" s="5" t="s">
         <v>585</v>
       </c>
@@ -4055,13 +4072,15 @@
       <c r="R3" s="2">
         <v>1</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="14" t="s">
         <v>597</v>
       </c>
       <c r="T3" s="2">
         <v>1</v>
       </c>
-      <c r="U3" s="2"/>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
       <c r="V3" s="5" t="s">
         <v>611</v>
       </c>
@@ -4108,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="AM3" s="2"/>
-      <c r="AN3" t="s">
+      <c r="AN3" s="13" t="s">
         <v>853</v>
       </c>
       <c r="AO3">
@@ -4117,7 +4136,7 @@
       <c r="AP3">
         <v>2</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="13" t="s">
         <v>346</v>
       </c>
       <c r="AR3" s="4">
@@ -4126,14 +4145,16 @@
       <c r="AS3" s="4">
         <v>1</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AT3" s="13" t="s">
         <v>318</v>
       </c>
       <c r="AU3" s="4">
         <v>1</v>
       </c>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4" t="s">
+      <c r="AV3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="15" t="s">
         <v>728</v>
       </c>
       <c r="AX3" s="4">
@@ -4142,7 +4163,7 @@
       <c r="AY3" s="4">
         <v>1</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="AZ3" s="15" t="s">
         <v>702</v>
       </c>
       <c r="BA3" s="4">
@@ -4151,8 +4172,8 @@
       <c r="BB3" s="4">
         <v>1</v>
       </c>
-      <c r="BC3" s="15" t="s">
-        <v>758</v>
+      <c r="BC3" s="13" t="s">
+        <v>818</v>
       </c>
       <c r="BD3" s="4">
         <v>1</v>
@@ -4160,14 +4181,14 @@
       <c r="BE3" s="4">
         <v>1</v>
       </c>
-      <c r="BF3" s="10" t="s">
+      <c r="BF3" s="8" t="s">
         <v>833</v>
       </c>
       <c r="BG3" s="4">
         <v>1</v>
       </c>
       <c r="BH3" s="4"/>
-      <c r="BI3" s="10" t="s">
+      <c r="BI3" s="8" t="s">
         <v>34</v>
       </c>
       <c r="BJ3" s="4">
@@ -4197,6 +4218,9 @@
       <c r="BV3">
         <v>5</v>
       </c>
+      <c r="BW3">
+        <v>1</v>
+      </c>
       <c r="BX3" t="s">
         <v>50</v>
       </c>
@@ -4227,10 +4251,13 @@
       <c r="CK3">
         <v>9</v>
       </c>
-      <c r="CM3" t="s">
+      <c r="CM3" s="13" t="s">
         <v>116</v>
       </c>
       <c r="CN3">
+        <v>1</v>
+      </c>
+      <c r="CO3">
         <v>1</v>
       </c>
       <c r="CP3" t="s">
@@ -4252,20 +4279,24 @@
         <v>1</v>
       </c>
       <c r="CX3" s="4"/>
-      <c r="CY3" t="s">
+      <c r="CY3" s="13" t="s">
         <v>164</v>
       </c>
       <c r="CZ3" s="4">
         <v>1</v>
       </c>
-      <c r="DA3" s="4"/>
-      <c r="DB3" t="s">
+      <c r="DA3" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB3" s="13" t="s">
         <v>177</v>
       </c>
       <c r="DC3" s="4">
         <v>1</v>
       </c>
-      <c r="DD3" s="4"/>
+      <c r="DD3" s="4">
+        <v>1</v>
+      </c>
       <c r="DE3" t="s">
         <v>252</v>
       </c>
@@ -4317,7 +4348,7 @@
       <c r="DY3" s="4"/>
     </row>
     <row r="4" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -4416,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="AM4" s="2"/>
-      <c r="AN4" t="s">
+      <c r="AN4" s="13" t="s">
         <v>854</v>
       </c>
       <c r="AO4">
@@ -4425,7 +4456,7 @@
       <c r="AP4">
         <v>2</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AQ4" s="13" t="s">
         <v>347</v>
       </c>
       <c r="AR4" s="4">
@@ -4441,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="AV4" s="4"/>
-      <c r="AW4" s="4" t="s">
+      <c r="AW4" s="15" t="s">
         <v>729</v>
       </c>
       <c r="AX4" s="4">
@@ -4450,7 +4481,7 @@
       <c r="AY4" s="4">
         <v>1</v>
       </c>
-      <c r="AZ4" s="4" t="s">
+      <c r="AZ4" s="15" t="s">
         <v>703</v>
       </c>
       <c r="BA4" s="4">
@@ -4459,23 +4490,21 @@
       <c r="BB4" s="4">
         <v>1</v>
       </c>
-      <c r="BC4" s="15" t="s">
-        <v>759</v>
+      <c r="BC4" t="s">
+        <v>819</v>
       </c>
       <c r="BD4" s="4">
         <v>1</v>
       </c>
-      <c r="BE4" s="4">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="10" t="s">
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="8" t="s">
         <v>834</v>
       </c>
       <c r="BG4" s="4">
         <v>1</v>
       </c>
       <c r="BH4" s="4"/>
-      <c r="BI4" s="10" t="s">
+      <c r="BI4" s="8" t="s">
         <v>847</v>
       </c>
       <c r="BJ4" s="4">
@@ -4505,6 +4534,9 @@
       <c r="BV4">
         <v>5</v>
       </c>
+      <c r="BW4">
+        <v>1</v>
+      </c>
       <c r="BX4" t="s">
         <v>62</v>
       </c>
@@ -4535,52 +4567,69 @@
       <c r="CK4">
         <v>7</v>
       </c>
-      <c r="CM4" t="s">
+      <c r="CM4" s="13" t="s">
         <v>117</v>
       </c>
       <c r="CN4">
         <v>1</v>
       </c>
-      <c r="CP4" t="s">
+      <c r="CO4">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="13" t="s">
         <v>131</v>
       </c>
       <c r="CQ4">
         <v>1</v>
       </c>
-      <c r="CS4" t="s">
+      <c r="CR4">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="13" t="s">
         <v>105</v>
       </c>
       <c r="CT4">
         <v>1</v>
       </c>
-      <c r="CV4" t="s">
+      <c r="CU4">
+        <v>1</v>
+      </c>
+      <c r="CV4" s="13" t="s">
         <v>94</v>
       </c>
       <c r="CW4" s="4">
         <v>1</v>
       </c>
-      <c r="CX4" s="4"/>
-      <c r="CY4" t="s">
+      <c r="CX4" s="4">
+        <v>1</v>
+      </c>
+      <c r="CY4" s="13" t="s">
         <v>165</v>
       </c>
       <c r="CZ4" s="4">
         <v>1</v>
       </c>
-      <c r="DA4" s="4"/>
-      <c r="DB4" t="s">
+      <c r="DA4" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB4" s="13" t="s">
         <v>178</v>
       </c>
       <c r="DC4" s="4">
         <v>1</v>
       </c>
-      <c r="DD4" s="4"/>
-      <c r="DE4" t="s">
+      <c r="DD4" s="4">
+        <v>1</v>
+      </c>
+      <c r="DE4" s="13" t="s">
         <v>253</v>
       </c>
       <c r="DF4" s="4">
         <v>1</v>
       </c>
-      <c r="DG4" s="4"/>
+      <c r="DG4" s="4">
+        <v>1</v>
+      </c>
       <c r="DH4" t="s">
         <v>264</v>
       </c>
@@ -4625,7 +4674,7 @@
       <c r="DY4" s="4"/>
     </row>
     <row r="5" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -4677,13 +4726,15 @@
       <c r="R5" s="2">
         <v>1</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="14" t="s">
         <v>599</v>
       </c>
       <c r="T5" s="2">
         <v>1</v>
       </c>
-      <c r="U5" s="2"/>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
       <c r="V5" s="5" t="s">
         <v>613</v>
       </c>
@@ -4693,8 +4744,8 @@
       <c r="X5" s="2">
         <v>1</v>
       </c>
-      <c r="Y5" s="5" t="s">
-        <v>628</v>
+      <c r="Y5" s="14" t="s">
+        <v>899</v>
       </c>
       <c r="Z5" s="2">
         <v>1</v>
@@ -4718,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="9" t="s">
+      <c r="AH5" s="7" t="s">
         <v>675</v>
       </c>
       <c r="AI5" s="2">
@@ -4734,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="AM5" s="2"/>
-      <c r="AN5" t="s">
+      <c r="AN5" s="13" t="s">
         <v>855</v>
       </c>
       <c r="AO5">
@@ -4743,7 +4794,7 @@
       <c r="AP5">
         <v>1</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AQ5" s="13" t="s">
         <v>348</v>
       </c>
       <c r="AR5" s="4">
@@ -4759,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="AV5" s="4"/>
-      <c r="AW5" s="4" t="s">
+      <c r="AW5" s="15" t="s">
         <v>730</v>
       </c>
       <c r="AX5" s="4">
@@ -4768,7 +4819,7 @@
       <c r="AY5" s="4">
         <v>1</v>
       </c>
-      <c r="AZ5" s="4" t="s">
+      <c r="AZ5" s="15" t="s">
         <v>704</v>
       </c>
       <c r="BA5" s="4">
@@ -4778,20 +4829,20 @@
         <v>1</v>
       </c>
       <c r="BC5" t="s">
-        <v>760</v>
+        <v>820</v>
       </c>
       <c r="BD5" s="4">
         <v>1</v>
       </c>
       <c r="BE5" s="4"/>
-      <c r="BF5" s="10" t="s">
+      <c r="BF5" s="8" t="s">
         <v>835</v>
       </c>
       <c r="BG5" s="4">
         <v>1</v>
       </c>
       <c r="BH5" s="4"/>
-      <c r="BI5" s="10" t="s">
+      <c r="BI5" s="8" t="s">
         <v>44</v>
       </c>
       <c r="BJ5" s="4">
@@ -4876,20 +4927,24 @@
         <v>1</v>
       </c>
       <c r="CX5" s="4"/>
-      <c r="CY5" t="s">
+      <c r="CY5" s="13" t="s">
         <v>166</v>
       </c>
       <c r="CZ5" s="4">
         <v>1</v>
       </c>
-      <c r="DA5" s="4"/>
-      <c r="DB5" t="s">
+      <c r="DA5" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB5" s="13" t="s">
         <v>179</v>
       </c>
       <c r="DC5" s="4">
         <v>1</v>
       </c>
-      <c r="DD5" s="4"/>
+      <c r="DD5" s="4">
+        <v>1</v>
+      </c>
       <c r="DE5" t="s">
         <v>254</v>
       </c>
@@ -4941,7 +4996,7 @@
       <c r="DY5" s="4"/>
     </row>
     <row r="6" spans="1:129" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -5010,7 +5065,7 @@
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Z6" s="2">
         <v>1</v>
@@ -5048,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="AM6" s="2"/>
-      <c r="AN6" t="s">
+      <c r="AN6" s="13" t="s">
         <v>856</v>
       </c>
       <c r="AO6">
@@ -5057,7 +5112,7 @@
       <c r="AP6">
         <v>1</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AQ6" s="13" t="s">
         <v>349</v>
       </c>
       <c r="AR6" s="4">
@@ -5073,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="AV6" s="4"/>
-      <c r="AW6" s="4" t="s">
+      <c r="AW6" s="15" t="s">
         <v>731</v>
       </c>
       <c r="AX6" s="4">
@@ -5082,7 +5137,7 @@
       <c r="AY6" s="4">
         <v>1</v>
       </c>
-      <c r="AZ6" s="4" t="s">
+      <c r="AZ6" s="15" t="s">
         <v>705</v>
       </c>
       <c r="BA6" s="4">
@@ -5091,21 +5146,23 @@
       <c r="BB6" s="4">
         <v>1</v>
       </c>
-      <c r="BC6" t="s">
-        <v>761</v>
+      <c r="BC6" s="13" t="s">
+        <v>821</v>
       </c>
       <c r="BD6" s="4">
         <v>1</v>
       </c>
-      <c r="BE6" s="4"/>
-      <c r="BF6" s="10" t="s">
+      <c r="BE6" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="8" t="s">
         <v>836</v>
       </c>
       <c r="BG6" s="4">
         <v>1</v>
       </c>
       <c r="BH6" s="4"/>
-      <c r="BI6" s="10" t="s">
+      <c r="BI6" s="8" t="s">
         <v>29</v>
       </c>
       <c r="BJ6" s="4">
@@ -5165,22 +5222,31 @@
       <c r="CK6">
         <v>10</v>
       </c>
-      <c r="CM6" t="s">
+      <c r="CM6" s="13" t="s">
         <v>89</v>
       </c>
       <c r="CN6">
         <v>1</v>
       </c>
-      <c r="CP6" t="s">
+      <c r="CO6">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="13" t="s">
         <v>97</v>
       </c>
       <c r="CQ6">
         <v>1</v>
       </c>
-      <c r="CS6" t="s">
+      <c r="CR6">
+        <v>1</v>
+      </c>
+      <c r="CS6" s="13" t="s">
         <v>106</v>
       </c>
       <c r="CT6">
+        <v>1</v>
+      </c>
+      <c r="CU6">
         <v>1</v>
       </c>
       <c r="CV6" t="s">
@@ -5190,27 +5256,33 @@
         <v>1</v>
       </c>
       <c r="CX6" s="4"/>
-      <c r="CY6" t="s">
+      <c r="CY6" s="13" t="s">
         <v>167</v>
       </c>
       <c r="CZ6" s="4">
         <v>1</v>
       </c>
-      <c r="DA6" s="4"/>
-      <c r="DB6" t="s">
+      <c r="DA6" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB6" s="13" t="s">
         <v>180</v>
       </c>
       <c r="DC6" s="4">
         <v>1</v>
       </c>
-      <c r="DD6" s="4"/>
-      <c r="DE6" t="s">
+      <c r="DD6" s="4">
+        <v>1</v>
+      </c>
+      <c r="DE6" s="13" t="s">
         <v>255</v>
       </c>
       <c r="DF6" s="4">
         <v>1</v>
       </c>
-      <c r="DG6" s="4"/>
+      <c r="DG6" s="4">
+        <v>1</v>
+      </c>
       <c r="DH6" t="s">
         <v>266</v>
       </c>
@@ -5255,7 +5327,7 @@
       <c r="DY6" s="4"/>
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
@@ -5287,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="17" t="s">
         <v>578</v>
       </c>
       <c r="N7" s="2">
@@ -5322,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Z7" s="2">
         <v>1</v>
@@ -5337,15 +5409,13 @@
         <v>1</v>
       </c>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="5" t="s">
-        <v>658</v>
+      <c r="AE7" s="6" t="s">
+        <v>900</v>
       </c>
       <c r="AF7" s="2">
         <v>1</v>
       </c>
-      <c r="AG7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG7" s="2"/>
       <c r="AH7" s="2" t="s">
         <v>677</v>
       </c>
@@ -5360,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="AM7" s="2"/>
-      <c r="AN7" s="2" t="s">
+      <c r="AN7" s="7" t="s">
         <v>857</v>
       </c>
       <c r="AO7">
@@ -5369,7 +5439,7 @@
       <c r="AP7">
         <v>2</v>
       </c>
-      <c r="AQ7" s="2" t="s">
+      <c r="AQ7" s="7" t="s">
         <v>350</v>
       </c>
       <c r="AR7" s="4">
@@ -5385,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="AV7" s="4"/>
-      <c r="AW7" s="4" t="s">
+      <c r="AW7" s="15" t="s">
         <v>732</v>
       </c>
       <c r="AX7" s="4">
@@ -5394,7 +5464,7 @@
       <c r="AY7" s="4">
         <v>1</v>
       </c>
-      <c r="AZ7" s="4" t="s">
+      <c r="AZ7" s="15" t="s">
         <v>706</v>
       </c>
       <c r="BA7" s="4">
@@ -5403,8 +5473,8 @@
       <c r="BB7" s="4">
         <v>1</v>
       </c>
-      <c r="BC7" s="15" t="s">
-        <v>762</v>
+      <c r="BC7" s="13" t="s">
+        <v>822</v>
       </c>
       <c r="BD7" s="4">
         <v>1</v>
@@ -5412,14 +5482,14 @@
       <c r="BE7" s="4">
         <v>1</v>
       </c>
-      <c r="BF7" s="10" t="s">
+      <c r="BF7" s="8" t="s">
         <v>837</v>
       </c>
       <c r="BG7" s="4">
         <v>1</v>
       </c>
       <c r="BH7" s="4"/>
-      <c r="BI7" s="10" t="s">
+      <c r="BI7" s="8" t="s">
         <v>30</v>
       </c>
       <c r="BJ7" s="4">
@@ -5479,20 +5549,24 @@
         <v>1</v>
       </c>
       <c r="CX7" s="4"/>
-      <c r="CY7" s="2" t="s">
+      <c r="CY7" s="7" t="s">
         <v>168</v>
       </c>
       <c r="CZ7" s="4">
         <v>1</v>
       </c>
-      <c r="DA7" s="4"/>
-      <c r="DB7" t="s">
+      <c r="DA7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB7" s="13" t="s">
         <v>181</v>
       </c>
       <c r="DC7" s="4">
         <v>1</v>
       </c>
-      <c r="DD7" s="4"/>
+      <c r="DD7" s="4">
+        <v>1</v>
+      </c>
       <c r="DE7" t="s">
         <v>256</v>
       </c>
@@ -5544,7 +5618,7 @@
       <c r="DY7" s="4"/>
     </row>
     <row r="8" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2">
@@ -5609,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Z8" s="2">
         <v>1</v>
@@ -5627,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AF8" s="2">
         <v>1</v>
@@ -5649,7 +5723,7 @@
         <v>1</v>
       </c>
       <c r="AM8" s="2"/>
-      <c r="AN8" s="2" t="s">
+      <c r="AN8" s="7" t="s">
         <v>858</v>
       </c>
       <c r="AO8">
@@ -5658,7 +5732,7 @@
       <c r="AP8">
         <v>1</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AQ8" s="7" t="s">
         <v>351</v>
       </c>
       <c r="AR8" s="4">
@@ -5674,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="AV8" s="4"/>
-      <c r="AW8" s="4" t="s">
+      <c r="AW8" s="15" t="s">
         <v>733</v>
       </c>
       <c r="AX8" s="4">
@@ -5683,7 +5757,7 @@
       <c r="AY8" s="4">
         <v>1</v>
       </c>
-      <c r="AZ8" s="4" t="s">
+      <c r="AZ8" s="15" t="s">
         <v>707</v>
       </c>
       <c r="BA8" s="4">
@@ -5693,20 +5767,20 @@
         <v>1</v>
       </c>
       <c r="BC8" t="s">
-        <v>763</v>
+        <v>823</v>
       </c>
       <c r="BD8" s="4">
         <v>1</v>
       </c>
       <c r="BE8" s="4"/>
-      <c r="BF8" s="10" t="s">
+      <c r="BF8" s="8" t="s">
         <v>838</v>
       </c>
       <c r="BG8" s="4">
         <v>1</v>
       </c>
       <c r="BH8" s="4"/>
-      <c r="BI8" s="10" t="s">
+      <c r="BI8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="BJ8" s="4">
@@ -5736,45 +5810,60 @@
       <c r="CK8">
         <v>8</v>
       </c>
-      <c r="CM8" s="2" t="s">
+      <c r="CM8" s="7" t="s">
         <v>90</v>
       </c>
       <c r="CN8">
         <v>1</v>
       </c>
-      <c r="CP8" s="2" t="s">
+      <c r="CO8">
+        <v>1</v>
+      </c>
+      <c r="CP8" s="7" t="s">
         <v>98</v>
       </c>
       <c r="CQ8">
         <v>1</v>
       </c>
-      <c r="CS8" s="2" t="s">
+      <c r="CR8">
+        <v>1</v>
+      </c>
+      <c r="CS8" s="7" t="s">
         <v>107</v>
       </c>
       <c r="CT8">
         <v>1</v>
       </c>
-      <c r="CV8" s="2" t="s">
+      <c r="CU8">
+        <v>1</v>
+      </c>
+      <c r="CV8" s="7" t="s">
         <v>156</v>
       </c>
       <c r="CW8" s="4">
         <v>1</v>
       </c>
-      <c r="CX8" s="4"/>
-      <c r="CY8" s="2" t="s">
+      <c r="CX8" s="4">
+        <v>1</v>
+      </c>
+      <c r="CY8" s="7" t="s">
         <v>169</v>
       </c>
       <c r="CZ8" s="4">
         <v>1</v>
       </c>
-      <c r="DA8" s="4"/>
-      <c r="DB8" s="2" t="s">
+      <c r="DA8" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB8" s="7" t="s">
         <v>182</v>
       </c>
       <c r="DC8" s="4">
         <v>1</v>
       </c>
-      <c r="DD8" s="4"/>
+      <c r="DD8" s="4">
+        <v>1</v>
+      </c>
       <c r="DE8" t="s">
         <v>257</v>
       </c>
@@ -5826,7 +5915,7 @@
       <c r="DY8" s="4"/>
     </row>
     <row r="9" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
@@ -5869,7 +5958,7 @@
       <c r="O9" s="2">
         <v>1</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="14" t="s">
         <v>591</v>
       </c>
       <c r="Q9" s="2">
@@ -5894,13 +5983,15 @@
       <c r="X9" s="2">
         <v>1</v>
       </c>
-      <c r="Y9" s="6" t="s">
-        <v>632</v>
+      <c r="Y9" s="5" t="s">
+        <v>631</v>
       </c>
       <c r="Z9" s="2">
         <v>1</v>
       </c>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
       <c r="AB9" s="5" t="s">
         <v>646</v>
       </c>
@@ -5911,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AF9" s="2">
         <v>1</v>
@@ -5933,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="AM9" s="2"/>
-      <c r="AN9" s="2" t="s">
+      <c r="AN9" s="7" t="s">
         <v>859</v>
       </c>
       <c r="AO9">
@@ -5956,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="AV9" s="4"/>
-      <c r="AW9" s="4" t="s">
+      <c r="AW9" s="15" t="s">
         <v>734</v>
       </c>
       <c r="AX9" s="4">
@@ -5965,7 +6056,7 @@
       <c r="AY9" s="4">
         <v>1</v>
       </c>
-      <c r="AZ9" s="4" t="s">
+      <c r="AZ9" s="15" t="s">
         <v>708</v>
       </c>
       <c r="BA9" s="4">
@@ -5974,23 +6065,21 @@
       <c r="BB9" s="4">
         <v>1</v>
       </c>
-      <c r="BC9" s="15" t="s">
-        <v>764</v>
+      <c r="BC9" t="s">
+        <v>824</v>
       </c>
       <c r="BD9" s="4">
         <v>1</v>
       </c>
-      <c r="BE9" s="4">
-        <v>1</v>
-      </c>
-      <c r="BF9" s="10" t="s">
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="8" t="s">
         <v>839</v>
       </c>
       <c r="BG9" s="4">
         <v>1</v>
       </c>
       <c r="BH9" s="4"/>
-      <c r="BI9" s="10" t="s">
+      <c r="BI9" s="8" t="s">
         <v>42</v>
       </c>
       <c r="BJ9" s="4">
@@ -6039,20 +6128,24 @@
         <v>1</v>
       </c>
       <c r="CX9" s="4"/>
-      <c r="CY9" t="s">
+      <c r="CY9" s="13" t="s">
         <v>170</v>
       </c>
       <c r="CZ9" s="4">
         <v>1</v>
       </c>
-      <c r="DA9" s="4"/>
-      <c r="DB9" s="2" t="s">
+      <c r="DA9" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB9" s="7" t="s">
         <v>183</v>
       </c>
       <c r="DC9" s="4">
         <v>1</v>
       </c>
-      <c r="DD9" s="4"/>
+      <c r="DD9" s="4">
+        <v>1</v>
+      </c>
       <c r="DE9" t="s">
         <v>258</v>
       </c>
@@ -6104,7 +6197,7 @@
       <c r="DY9" s="4"/>
     </row>
     <row r="10" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
@@ -6156,13 +6249,15 @@
       <c r="R10" s="2">
         <v>1</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="14" t="s">
         <v>604</v>
       </c>
       <c r="T10" s="2">
         <v>1</v>
       </c>
-      <c r="U10" s="2"/>
+      <c r="U10" s="2">
+        <v>1</v>
+      </c>
       <c r="V10" s="5" t="s">
         <v>618</v>
       </c>
@@ -6173,7 +6268,7 @@
         <v>1</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Z10" s="2">
         <v>1</v>
@@ -6186,13 +6281,15 @@
         <v>1</v>
       </c>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="6" t="s">
-        <v>661</v>
+      <c r="AE10" s="5" t="s">
+        <v>660</v>
       </c>
       <c r="AF10" s="2">
         <v>1</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" s="2">
+        <v>1</v>
+      </c>
       <c r="AH10" s="2" t="s">
         <v>680</v>
       </c>
@@ -6207,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="AM10" s="2"/>
-      <c r="AN10" s="2" t="s">
+      <c r="AN10" s="7" t="s">
         <v>860</v>
       </c>
       <c r="AO10">
@@ -6216,7 +6313,7 @@
       <c r="AP10">
         <v>2</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AQ10" s="13" t="s">
         <v>353</v>
       </c>
       <c r="AR10" s="4">
@@ -6232,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="AV10" s="4"/>
-      <c r="AW10" s="4" t="s">
+      <c r="AW10" s="15" t="s">
         <v>735</v>
       </c>
       <c r="AX10" s="4">
@@ -6241,7 +6338,7 @@
       <c r="AY10" s="4">
         <v>1</v>
       </c>
-      <c r="AZ10" s="4" t="s">
+      <c r="AZ10" s="15" t="s">
         <v>709</v>
       </c>
       <c r="BA10" s="4">
@@ -6250,23 +6347,21 @@
       <c r="BB10" s="4">
         <v>1</v>
       </c>
-      <c r="BC10" s="15" t="s">
-        <v>765</v>
+      <c r="BC10" t="s">
+        <v>825</v>
       </c>
       <c r="BD10" s="4">
         <v>1</v>
       </c>
-      <c r="BE10" s="4">
-        <v>1</v>
-      </c>
-      <c r="BF10" s="10" t="s">
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="8" t="s">
         <v>840</v>
       </c>
       <c r="BG10" s="4">
         <v>1</v>
       </c>
       <c r="BH10" s="4"/>
-      <c r="BI10" s="10" t="s">
+      <c r="BI10" s="8" t="s">
         <v>47</v>
       </c>
       <c r="BJ10" s="4">
@@ -6290,45 +6385,60 @@
       <c r="CK10">
         <v>7</v>
       </c>
-      <c r="CM10" t="s">
+      <c r="CM10" s="13" t="s">
         <v>91</v>
       </c>
       <c r="CN10">
         <v>1</v>
       </c>
-      <c r="CP10" t="s">
+      <c r="CO10">
+        <v>1</v>
+      </c>
+      <c r="CP10" s="13" t="s">
         <v>99</v>
       </c>
       <c r="CQ10">
         <v>1</v>
       </c>
-      <c r="CS10" t="s">
+      <c r="CR10">
+        <v>1</v>
+      </c>
+      <c r="CS10" s="13" t="s">
         <v>108</v>
       </c>
       <c r="CT10">
         <v>1</v>
       </c>
-      <c r="CV10" t="s">
+      <c r="CU10">
+        <v>1</v>
+      </c>
+      <c r="CV10" s="13" t="s">
         <v>158</v>
       </c>
       <c r="CW10" s="4">
         <v>1</v>
       </c>
-      <c r="CX10" s="4"/>
-      <c r="CY10" t="s">
+      <c r="CX10" s="4">
+        <v>1</v>
+      </c>
+      <c r="CY10" s="13" t="s">
         <v>171</v>
       </c>
       <c r="CZ10" s="4">
         <v>1</v>
       </c>
-      <c r="DA10" s="4"/>
-      <c r="DB10" t="s">
+      <c r="DA10" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB10" s="13" t="s">
         <v>184</v>
       </c>
       <c r="DC10" s="4">
         <v>1</v>
       </c>
-      <c r="DD10" s="4"/>
+      <c r="DD10" s="4">
+        <v>1</v>
+      </c>
       <c r="DE10" t="s">
         <v>259</v>
       </c>
@@ -6380,7 +6490,7 @@
       <c r="DY10" s="4"/>
     </row>
     <row r="11" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
@@ -6448,15 +6558,13 @@
       <c r="X11" s="2">
         <v>1</v>
       </c>
-      <c r="Y11" s="5" t="s">
-        <v>634</v>
+      <c r="Y11" s="6" t="s">
+        <v>633</v>
       </c>
       <c r="Z11" s="2">
         <v>1</v>
       </c>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="5" t="s">
         <v>648</v>
       </c>
@@ -6466,15 +6574,13 @@
       <c r="AD11" s="2">
         <v>1</v>
       </c>
-      <c r="AE11" s="5" t="s">
-        <v>671</v>
+      <c r="AE11" s="6" t="s">
+        <v>661</v>
       </c>
       <c r="AF11" s="2">
         <v>1</v>
       </c>
-      <c r="AG11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" s="2" t="s">
         <v>681</v>
       </c>
@@ -6489,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="AM11" s="2"/>
-      <c r="AN11" s="2" t="s">
+      <c r="AN11" s="7" t="s">
         <v>861</v>
       </c>
       <c r="AO11">
@@ -6498,7 +6604,7 @@
       <c r="AP11">
         <v>3</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AQ11" s="13" t="s">
         <v>354</v>
       </c>
       <c r="AR11" s="4">
@@ -6514,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="AV11" s="4"/>
-      <c r="AW11" s="4" t="s">
+      <c r="AW11" s="15" t="s">
         <v>736</v>
       </c>
       <c r="AX11" s="4">
@@ -6523,7 +6629,7 @@
       <c r="AY11" s="4">
         <v>1</v>
       </c>
-      <c r="AZ11" s="4" t="s">
+      <c r="AZ11" s="15" t="s">
         <v>710</v>
       </c>
       <c r="BA11" s="4">
@@ -6532,21 +6638,23 @@
       <c r="BB11" s="4">
         <v>1</v>
       </c>
-      <c r="BC11" t="s">
-        <v>766</v>
+      <c r="BC11" s="13" t="s">
+        <v>826</v>
       </c>
       <c r="BD11" s="4">
         <v>1</v>
       </c>
-      <c r="BE11" s="4"/>
-      <c r="BF11" s="10" t="s">
+      <c r="BE11" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="8" t="s">
         <v>841</v>
       </c>
       <c r="BG11" s="4">
         <v>1</v>
       </c>
       <c r="BH11" s="4"/>
-      <c r="BI11" s="10" t="s">
+      <c r="BI11" s="8" t="s">
         <v>49</v>
       </c>
       <c r="BJ11" s="4">
@@ -6570,16 +6678,22 @@
       <c r="CK11">
         <v>7</v>
       </c>
-      <c r="CM11" t="s">
+      <c r="CM11" s="13" t="s">
         <v>121</v>
       </c>
       <c r="CN11">
         <v>1</v>
       </c>
-      <c r="CP11" t="s">
+      <c r="CO11">
+        <v>1</v>
+      </c>
+      <c r="CP11" s="13" t="s">
         <v>135</v>
       </c>
       <c r="CQ11">
+        <v>1</v>
+      </c>
+      <c r="CR11">
         <v>1</v>
       </c>
       <c r="CS11" t="s">
@@ -6660,7 +6774,7 @@
       <c r="DY11" s="4"/>
     </row>
     <row r="12" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
@@ -6701,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="2"/>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="14" t="s">
         <v>594</v>
       </c>
       <c r="Q12" s="2">
@@ -6710,7 +6824,7 @@
       <c r="R12" s="2">
         <v>1</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="5" t="s">
         <v>606</v>
       </c>
       <c r="T12" s="2">
@@ -6727,7 +6841,7 @@
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Z12" s="2">
         <v>1</v>
@@ -6735,27 +6849,33 @@
       <c r="AA12" s="2">
         <v>1</v>
       </c>
-      <c r="AB12" s="6" t="s">
+      <c r="AB12" s="14" t="s">
         <v>649</v>
       </c>
       <c r="AC12" s="2">
         <v>1</v>
       </c>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="6" t="s">
-        <v>662</v>
+      <c r="AD12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>671</v>
       </c>
       <c r="AF12" s="2">
         <v>1</v>
       </c>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="9" t="s">
+      <c r="AG12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="7" t="s">
         <v>682</v>
       </c>
       <c r="AI12" s="2">
         <v>1</v>
       </c>
-      <c r="AJ12" s="2"/>
+      <c r="AJ12" s="2">
+        <v>1</v>
+      </c>
       <c r="AK12" s="1" t="s">
         <v>36</v>
       </c>
@@ -6763,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="AM12" s="2"/>
-      <c r="AN12" s="2" t="s">
+      <c r="AN12" s="7" t="s">
         <v>862</v>
       </c>
       <c r="AO12">
@@ -6772,7 +6892,7 @@
       <c r="AP12">
         <v>1</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AQ12" s="13" t="s">
         <v>355</v>
       </c>
       <c r="AR12" s="4">
@@ -6788,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="AV12" s="4"/>
-      <c r="AW12" s="4" t="s">
+      <c r="AW12" s="15" t="s">
         <v>737</v>
       </c>
       <c r="AX12" s="4">
@@ -6797,7 +6917,7 @@
       <c r="AY12" s="4">
         <v>1</v>
       </c>
-      <c r="AZ12" s="4" t="s">
+      <c r="AZ12" s="15" t="s">
         <v>711</v>
       </c>
       <c r="BA12" s="4">
@@ -6807,20 +6927,20 @@
         <v>1</v>
       </c>
       <c r="BC12" t="s">
-        <v>767</v>
+        <v>827</v>
       </c>
       <c r="BD12" s="4">
         <v>1</v>
       </c>
       <c r="BE12" s="4"/>
-      <c r="BF12" s="10" t="s">
+      <c r="BF12" s="8" t="s">
         <v>842</v>
       </c>
       <c r="BG12" s="4">
         <v>1</v>
       </c>
       <c r="BH12" s="4"/>
-      <c r="BI12" s="10" t="s">
+      <c r="BI12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="BJ12" s="4">
@@ -6844,45 +6964,60 @@
       <c r="CK12">
         <v>7</v>
       </c>
-      <c r="CM12" t="s">
+      <c r="CM12" s="13" t="s">
         <v>92</v>
       </c>
       <c r="CN12">
         <v>1</v>
       </c>
-      <c r="CP12" t="s">
+      <c r="CO12">
+        <v>1</v>
+      </c>
+      <c r="CP12" s="13" t="s">
         <v>100</v>
       </c>
       <c r="CQ12">
         <v>1</v>
       </c>
-      <c r="CS12" t="s">
+      <c r="CR12">
+        <v>1</v>
+      </c>
+      <c r="CS12" s="13" t="s">
         <v>109</v>
       </c>
       <c r="CT12">
         <v>1</v>
       </c>
-      <c r="CV12" t="s">
+      <c r="CU12">
+        <v>1</v>
+      </c>
+      <c r="CV12" s="13" t="s">
         <v>160</v>
       </c>
       <c r="CW12" s="4">
         <v>1</v>
       </c>
-      <c r="CX12" s="4"/>
-      <c r="CY12" t="s">
+      <c r="CX12" s="4">
+        <v>1</v>
+      </c>
+      <c r="CY12" s="13" t="s">
         <v>173</v>
       </c>
       <c r="CZ12" s="4">
         <v>1</v>
       </c>
-      <c r="DA12" s="4"/>
-      <c r="DB12" t="s">
+      <c r="DA12" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB12" s="13" t="s">
         <v>186</v>
       </c>
       <c r="DC12" s="4">
         <v>1</v>
       </c>
-      <c r="DD12" s="4"/>
+      <c r="DD12" s="4">
+        <v>1</v>
+      </c>
       <c r="DF12" s="4"/>
       <c r="DG12" s="4"/>
       <c r="DH12" t="s">
@@ -6929,7 +7064,7 @@
       <c r="DY12" s="4"/>
     </row>
     <row r="13" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
@@ -6992,7 +7127,7 @@
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Z13" s="2">
         <v>1</v>
@@ -7010,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AF13" s="2">
         <v>1</v>
@@ -7030,7 +7165,7 @@
         <v>1</v>
       </c>
       <c r="AM13" s="2"/>
-      <c r="AN13" s="2" t="s">
+      <c r="AN13" s="7" t="s">
         <v>863</v>
       </c>
       <c r="AO13">
@@ -7039,7 +7174,7 @@
       <c r="AP13">
         <v>1</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AQ13" s="13" t="s">
         <v>356</v>
       </c>
       <c r="AR13" s="4">
@@ -7055,7 +7190,7 @@
         <v>1</v>
       </c>
       <c r="AV13" s="4"/>
-      <c r="AW13" s="4" t="s">
+      <c r="AW13" s="15" t="s">
         <v>738</v>
       </c>
       <c r="AX13" s="4">
@@ -7064,7 +7199,7 @@
       <c r="AY13" s="4">
         <v>1</v>
       </c>
-      <c r="AZ13" s="4" t="s">
+      <c r="AZ13" s="15" t="s">
         <v>712</v>
       </c>
       <c r="BA13" s="4">
@@ -7073,8 +7208,8 @@
       <c r="BB13" s="4">
         <v>1</v>
       </c>
-      <c r="BC13" s="15" t="s">
-        <v>768</v>
+      <c r="BC13" s="13" t="s">
+        <v>828</v>
       </c>
       <c r="BD13" s="4">
         <v>1</v>
@@ -7082,14 +7217,14 @@
       <c r="BE13" s="4">
         <v>1</v>
       </c>
-      <c r="BF13" s="10" t="s">
+      <c r="BF13" s="8" t="s">
         <v>843</v>
       </c>
       <c r="BG13" s="4">
         <v>1</v>
       </c>
       <c r="BH13" s="4"/>
-      <c r="BI13" s="10" t="s">
+      <c r="BI13" s="8" t="s">
         <v>848</v>
       </c>
       <c r="BJ13" s="4">
@@ -7119,10 +7254,13 @@
       <c r="CN13">
         <v>1</v>
       </c>
-      <c r="CP13" t="s">
+      <c r="CP13" s="13" t="s">
         <v>136</v>
       </c>
       <c r="CQ13">
+        <v>1</v>
+      </c>
+      <c r="CR13">
         <v>1</v>
       </c>
       <c r="CS13" t="s">
@@ -7145,13 +7283,15 @@
         <v>1</v>
       </c>
       <c r="DA13" s="4"/>
-      <c r="DB13" t="s">
+      <c r="DB13" s="13" t="s">
         <v>187</v>
       </c>
       <c r="DC13" s="4">
         <v>1</v>
       </c>
-      <c r="DD13" s="4"/>
+      <c r="DD13" s="4">
+        <v>1</v>
+      </c>
       <c r="DF13" s="4"/>
       <c r="DG13" s="4"/>
       <c r="DH13" t="s">
@@ -7191,7 +7331,7 @@
       <c r="DV13" s="4"/>
     </row>
     <row r="14" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
@@ -7235,7 +7375,9 @@
       <c r="T14" s="2">
         <v>1</v>
       </c>
-      <c r="U14" s="2"/>
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
       <c r="V14" s="5" t="s">
         <v>622</v>
       </c>
@@ -7245,13 +7387,15 @@
       <c r="X14" s="2">
         <v>1</v>
       </c>
-      <c r="Y14" s="6" t="s">
-        <v>637</v>
+      <c r="Y14" s="5" t="s">
+        <v>636</v>
       </c>
       <c r="Z14" s="2">
         <v>1</v>
       </c>
-      <c r="AA14" s="2"/>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
       <c r="AB14" s="5" t="s">
         <v>651</v>
       </c>
@@ -7262,13 +7406,13 @@
         <v>1</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AF14" s="2">
         <v>1</v>
       </c>
       <c r="AG14" s="2"/>
-      <c r="AH14" s="9" t="s">
+      <c r="AH14" s="7" t="s">
         <v>684</v>
       </c>
       <c r="AI14" s="2">
@@ -7284,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="AM14" s="2"/>
-      <c r="AN14" s="2" t="s">
+      <c r="AN14" s="7" t="s">
         <v>864</v>
       </c>
       <c r="AO14">
@@ -7293,7 +7437,7 @@
       <c r="AP14">
         <v>1</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AQ14" s="13" t="s">
         <v>357</v>
       </c>
       <c r="AR14" s="4">
@@ -7316,7 +7460,7 @@
         <v>1</v>
       </c>
       <c r="AY14" s="4"/>
-      <c r="AZ14" s="4" t="s">
+      <c r="AZ14" s="15" t="s">
         <v>713</v>
       </c>
       <c r="BA14" s="4">
@@ -7325,21 +7469,23 @@
       <c r="BB14" s="4">
         <v>1</v>
       </c>
-      <c r="BC14" t="s">
-        <v>769</v>
+      <c r="BC14" s="13" t="s">
+        <v>793</v>
       </c>
       <c r="BD14" s="4">
         <v>1</v>
       </c>
-      <c r="BE14" s="4"/>
-      <c r="BF14" s="10" t="s">
+      <c r="BE14" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF14" s="8" t="s">
         <v>844</v>
       </c>
       <c r="BG14" s="4">
         <v>1</v>
       </c>
       <c r="BH14" s="4"/>
-      <c r="BI14" s="10" t="s">
+      <c r="BI14" s="8" t="s">
         <v>849</v>
       </c>
       <c r="BJ14" s="4">
@@ -7363,37 +7509,51 @@
       <c r="CK14">
         <v>7</v>
       </c>
-      <c r="CM14" t="s">
+      <c r="CM14" s="13" t="s">
         <v>93</v>
       </c>
       <c r="CN14">
         <v>1</v>
       </c>
-      <c r="CP14" t="s">
+      <c r="CO14">
+        <v>1</v>
+      </c>
+      <c r="CP14" s="13" t="s">
         <v>101</v>
       </c>
       <c r="CQ14">
         <v>1</v>
       </c>
-      <c r="CS14" t="s">
+      <c r="CR14">
+        <v>1</v>
+      </c>
+      <c r="CS14" s="13" t="s">
         <v>110</v>
       </c>
       <c r="CT14">
         <v>1</v>
       </c>
-      <c r="CV14" t="s">
+      <c r="CU14">
+        <v>1</v>
+      </c>
+      <c r="CV14" s="13" t="s">
         <v>520</v>
       </c>
       <c r="CW14">
         <v>1</v>
       </c>
-      <c r="DB14" t="s">
+      <c r="CX14">
+        <v>1</v>
+      </c>
+      <c r="DB14" s="13" t="s">
         <v>188</v>
       </c>
       <c r="DC14" s="4">
         <v>1</v>
       </c>
-      <c r="DD14" s="4"/>
+      <c r="DD14" s="4">
+        <v>1</v>
+      </c>
       <c r="DF14" s="4"/>
       <c r="DG14" s="4"/>
       <c r="DH14" t="s">
@@ -7426,7 +7586,7 @@
       <c r="DV14" s="4"/>
     </row>
     <row r="15" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
@@ -7474,13 +7634,15 @@
         <v>1</v>
       </c>
       <c r="X15" s="2"/>
-      <c r="Y15" s="6" t="s">
-        <v>638</v>
+      <c r="Y15" s="14" t="s">
+        <v>637</v>
       </c>
       <c r="Z15" s="2">
         <v>1</v>
       </c>
-      <c r="AA15" s="2"/>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
       <c r="AB15" s="5" t="s">
         <v>652</v>
       </c>
@@ -7490,15 +7652,13 @@
       <c r="AD15" s="2">
         <v>1</v>
       </c>
-      <c r="AE15" s="5" t="s">
-        <v>665</v>
+      <c r="AE15" s="6" t="s">
+        <v>664</v>
       </c>
       <c r="AF15" s="2">
         <v>1</v>
       </c>
-      <c r="AG15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG15" s="2"/>
       <c r="AH15" s="2" t="s">
         <v>685</v>
       </c>
@@ -7513,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="AM15" s="2"/>
-      <c r="AN15" s="2" t="s">
+      <c r="AN15" s="7" t="s">
         <v>865</v>
       </c>
       <c r="AO15">
@@ -7522,7 +7682,7 @@
       <c r="AP15">
         <v>1</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AQ15" s="13" t="s">
         <v>358</v>
       </c>
       <c r="AR15" s="4">
@@ -7538,7 +7698,7 @@
         <v>1</v>
       </c>
       <c r="AV15" s="4"/>
-      <c r="AW15" s="4" t="s">
+      <c r="AW15" s="15" t="s">
         <v>740</v>
       </c>
       <c r="AX15" s="4">
@@ -7547,7 +7707,7 @@
       <c r="AY15" s="4">
         <v>1</v>
       </c>
-      <c r="AZ15" s="4" t="s">
+      <c r="AZ15" s="15" t="s">
         <v>714</v>
       </c>
       <c r="BA15" s="4">
@@ -7556,8 +7716,8 @@
       <c r="BB15" s="4">
         <v>1</v>
       </c>
-      <c r="BC15" s="15" t="s">
-        <v>770</v>
+      <c r="BC15" s="13" t="s">
+        <v>794</v>
       </c>
       <c r="BD15" s="4">
         <v>1</v>
@@ -7565,14 +7725,14 @@
       <c r="BE15" s="4">
         <v>1</v>
       </c>
-      <c r="BF15" s="10" t="s">
+      <c r="BF15" s="8" t="s">
         <v>845</v>
       </c>
       <c r="BG15" s="4">
         <v>1</v>
       </c>
       <c r="BH15" s="4"/>
-      <c r="BI15" s="10" t="s">
+      <c r="BI15" s="8" t="s">
         <v>39</v>
       </c>
       <c r="BJ15" s="4">
@@ -7620,13 +7780,15 @@
       <c r="CW15">
         <v>1</v>
       </c>
-      <c r="DB15" t="s">
+      <c r="DB15" s="13" t="s">
         <v>189</v>
       </c>
       <c r="DC15" s="4">
         <v>1</v>
       </c>
-      <c r="DD15" s="4"/>
+      <c r="DD15" s="4">
+        <v>1</v>
+      </c>
       <c r="DF15" s="4"/>
       <c r="DG15" s="4"/>
       <c r="DH15" t="s">
@@ -7659,7 +7821,7 @@
       <c r="DV15" s="4"/>
     </row>
     <row r="16" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2">
@@ -7693,14 +7855,18 @@
       <c r="X16" s="2">
         <v>1</v>
       </c>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
+      <c r="Y16" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>1</v>
+      </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AF16" s="2">
         <v>1</v>
@@ -7722,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="AM16" s="2"/>
-      <c r="AN16" s="2" t="s">
+      <c r="AN16" s="7" t="s">
         <v>866</v>
       </c>
       <c r="AO16">
@@ -7752,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="AY16" s="4"/>
-      <c r="AZ16" s="4" t="s">
+      <c r="AZ16" s="15" t="s">
         <v>715</v>
       </c>
       <c r="BA16" s="4">
@@ -7762,20 +7928,20 @@
         <v>1</v>
       </c>
       <c r="BC16" t="s">
-        <v>771</v>
+        <v>795</v>
       </c>
       <c r="BD16" s="4">
         <v>1</v>
       </c>
       <c r="BE16" s="4"/>
-      <c r="BF16" s="10" t="s">
+      <c r="BF16" s="8" t="s">
         <v>846</v>
       </c>
       <c r="BG16" s="4">
         <v>1</v>
       </c>
       <c r="BH16" s="4"/>
-      <c r="BI16" s="10" t="s">
+      <c r="BI16" s="8" t="s">
         <v>32</v>
       </c>
       <c r="BJ16" s="4">
@@ -7799,38 +7965,51 @@
       <c r="CK16">
         <v>8</v>
       </c>
-      <c r="CM16" t="s">
+      <c r="CM16" s="13" t="s">
         <v>124</v>
       </c>
       <c r="CN16">
         <v>1</v>
       </c>
-      <c r="CP16" t="s">
+      <c r="CO16">
+        <v>1</v>
+      </c>
+      <c r="CP16" s="13" t="s">
         <v>102</v>
       </c>
       <c r="CQ16">
         <v>1</v>
       </c>
-      <c r="CS16" t="s">
+      <c r="CR16">
+        <v>1</v>
+      </c>
+      <c r="CS16" s="13" t="s">
         <v>111</v>
       </c>
       <c r="CT16">
         <v>1</v>
       </c>
-      <c r="CV16" t="s">
+      <c r="CU16">
+        <v>1</v>
+      </c>
+      <c r="CV16" s="13" t="s">
         <v>486</v>
       </c>
       <c r="CW16" s="4">
         <v>1</v>
       </c>
-      <c r="CX16" s="4"/>
-      <c r="DB16" t="s">
+      <c r="CX16" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB16" s="13" t="s">
         <v>190</v>
       </c>
       <c r="DC16" s="4">
         <v>1</v>
       </c>
-      <c r="DD16" s="4"/>
+      <c r="DD16" s="4">
+        <v>1</v>
+      </c>
       <c r="DF16" s="4"/>
       <c r="DG16" s="4"/>
       <c r="DH16" t="s">
@@ -7863,7 +8042,7 @@
       <c r="DV16" s="4"/>
     </row>
     <row r="17" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2">
@@ -7898,7 +8077,7 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AF17" s="2">
         <v>1</v>
@@ -7920,7 +8099,7 @@
         <v>1</v>
       </c>
       <c r="AM17" s="2"/>
-      <c r="AN17" s="2" t="s">
+      <c r="AN17" s="7" t="s">
         <v>867</v>
       </c>
       <c r="AO17">
@@ -7929,7 +8108,7 @@
       <c r="AP17">
         <v>1</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AQ17" s="13" t="s">
         <v>360</v>
       </c>
       <c r="AR17" s="4">
@@ -7952,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="AY17" s="4"/>
-      <c r="AZ17" s="4" t="s">
+      <c r="AZ17" s="15" t="s">
         <v>716</v>
       </c>
       <c r="BA17" s="4">
@@ -7961,14 +8140,16 @@
       <c r="BB17" s="4">
         <v>1</v>
       </c>
-      <c r="BC17" t="s">
-        <v>772</v>
+      <c r="BC17" s="13" t="s">
+        <v>796</v>
       </c>
       <c r="BD17" s="4">
         <v>1</v>
       </c>
-      <c r="BE17" s="4"/>
-      <c r="BI17" s="10" t="s">
+      <c r="BE17" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI17" s="8" t="s">
         <v>41</v>
       </c>
       <c r="BJ17" s="4">
@@ -8017,13 +8198,15 @@
         <v>1</v>
       </c>
       <c r="CX17" s="4"/>
-      <c r="DB17" t="s">
+      <c r="DB17" s="13" t="s">
         <v>191</v>
       </c>
       <c r="DC17" s="4">
         <v>1</v>
       </c>
-      <c r="DD17" s="4"/>
+      <c r="DD17" s="4">
+        <v>1</v>
+      </c>
       <c r="DF17" s="4"/>
       <c r="DG17" s="4"/>
       <c r="DH17" t="s">
@@ -8056,7 +8239,7 @@
       <c r="DV17" s="4"/>
     </row>
     <row r="18" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2">
@@ -8091,7 +8274,7 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AF18" s="2">
         <v>1</v>
@@ -8113,14 +8296,14 @@
         <v>1</v>
       </c>
       <c r="AM18" s="2"/>
-      <c r="AN18" s="2" t="s">
+      <c r="AN18" s="7" t="s">
         <v>868</v>
       </c>
       <c r="AO18">
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" t="s">
         <v>361</v>
@@ -8136,7 +8319,7 @@
         <v>1</v>
       </c>
       <c r="AV18" s="4"/>
-      <c r="AW18" s="4" t="s">
+      <c r="AW18" s="15" t="s">
         <v>743</v>
       </c>
       <c r="AX18" s="4">
@@ -8145,7 +8328,7 @@
       <c r="AY18" s="4">
         <v>1</v>
       </c>
-      <c r="AZ18" s="4" t="s">
+      <c r="AZ18" s="15" t="s">
         <v>717</v>
       </c>
       <c r="BA18" s="4">
@@ -8154,8 +8337,8 @@
       <c r="BB18" s="4">
         <v>1</v>
       </c>
-      <c r="BC18" s="15" t="s">
-        <v>773</v>
+      <c r="BC18" s="13" t="s">
+        <v>797</v>
       </c>
       <c r="BD18" s="4">
         <v>1</v>
@@ -8163,7 +8346,7 @@
       <c r="BE18" s="4">
         <v>1</v>
       </c>
-      <c r="BI18" s="10" t="s">
+      <c r="BI18" s="8" t="s">
         <v>36</v>
       </c>
       <c r="BJ18" s="4">
@@ -8187,31 +8370,42 @@
       <c r="CK18">
         <v>9</v>
       </c>
-      <c r="CM18" t="s">
+      <c r="CM18" s="13" t="s">
         <v>126</v>
       </c>
       <c r="CN18">
         <v>1</v>
       </c>
-      <c r="CP18" t="s">
+      <c r="CO18">
+        <v>1</v>
+      </c>
+      <c r="CP18" s="13" t="s">
         <v>103</v>
       </c>
       <c r="CQ18">
         <v>1</v>
       </c>
-      <c r="CS18" t="s">
+      <c r="CR18">
+        <v>1</v>
+      </c>
+      <c r="CS18" s="13" t="s">
         <v>112</v>
       </c>
       <c r="CT18">
         <v>1</v>
       </c>
-      <c r="DB18" t="s">
+      <c r="CU18">
+        <v>1</v>
+      </c>
+      <c r="DB18" s="13" t="s">
         <v>192</v>
       </c>
       <c r="DC18" s="4">
         <v>1</v>
       </c>
-      <c r="DD18" s="4"/>
+      <c r="DD18" s="4">
+        <v>1</v>
+      </c>
       <c r="DF18" s="4"/>
       <c r="DG18" s="4"/>
       <c r="DH18" t="s">
@@ -8244,7 +8438,7 @@
       <c r="DV18" s="4"/>
     </row>
     <row r="19" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2">
@@ -8279,7 +8473,7 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="5" t="s">
-        <v>851</v>
+        <v>668</v>
       </c>
       <c r="AF19" s="2">
         <v>1</v>
@@ -8301,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="AM19" s="2"/>
-      <c r="AN19" s="2" t="s">
+      <c r="AN19" s="7" t="s">
         <v>869</v>
       </c>
       <c r="AO19">
@@ -8340,14 +8534,16 @@
       <c r="BB19" s="4">
         <v>0</v>
       </c>
-      <c r="BC19" t="s">
-        <v>774</v>
+      <c r="BC19" s="13" t="s">
+        <v>798</v>
       </c>
       <c r="BD19" s="4">
         <v>1</v>
       </c>
-      <c r="BE19" s="4"/>
-      <c r="BI19" s="10" t="s">
+      <c r="BE19" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI19" s="8" t="s">
         <v>43</v>
       </c>
       <c r="BJ19" s="4">
@@ -8389,13 +8585,15 @@
       <c r="CT19">
         <v>1</v>
       </c>
-      <c r="DB19" t="s">
+      <c r="DB19" s="13" t="s">
         <v>193</v>
       </c>
       <c r="DC19" s="4">
         <v>1</v>
       </c>
-      <c r="DD19" s="4"/>
+      <c r="DD19" s="4">
+        <v>1</v>
+      </c>
       <c r="DF19" s="4"/>
       <c r="DG19" s="4"/>
       <c r="DH19" t="s">
@@ -8428,7 +8626,7 @@
       <c r="DV19" s="4"/>
     </row>
     <row r="20" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2">
@@ -8464,13 +8662,15 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="6" t="s">
-        <v>669</v>
+      <c r="AE20" s="5" t="s">
+        <v>851</v>
       </c>
       <c r="AF20" s="2">
         <v>1</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" s="2">
+        <v>1</v>
+      </c>
       <c r="AH20" s="2" t="s">
         <v>690</v>
       </c>
@@ -8485,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="AM20" s="2"/>
-      <c r="AN20" s="2" t="s">
+      <c r="AN20" s="7" t="s">
         <v>870</v>
       </c>
       <c r="AO20">
@@ -8508,7 +8708,7 @@
         <v>1</v>
       </c>
       <c r="AV20" s="4"/>
-      <c r="AW20" s="4" t="s">
+      <c r="AW20" s="15" t="s">
         <v>745</v>
       </c>
       <c r="AX20" s="4">
@@ -8517,7 +8717,7 @@
       <c r="AY20" s="4">
         <v>1</v>
       </c>
-      <c r="AZ20" s="4" t="s">
+      <c r="AZ20" s="15" t="s">
         <v>719</v>
       </c>
       <c r="BA20" s="4">
@@ -8526,8 +8726,8 @@
       <c r="BB20" s="4">
         <v>1</v>
       </c>
-      <c r="BC20" s="15" t="s">
-        <v>775</v>
+      <c r="BC20" s="13" t="s">
+        <v>799</v>
       </c>
       <c r="BD20" s="4">
         <v>1</v>
@@ -8535,7 +8735,7 @@
       <c r="BE20" s="4">
         <v>1</v>
       </c>
-      <c r="BI20" s="10" t="s">
+      <c r="BI20" s="8" t="s">
         <v>850</v>
       </c>
       <c r="BJ20" s="4">
@@ -8559,25 +8759,33 @@
       <c r="CK20">
         <v>9</v>
       </c>
-      <c r="CM20" t="s">
+      <c r="CM20" s="13" t="s">
         <v>94</v>
       </c>
       <c r="CN20">
         <v>1</v>
       </c>
-      <c r="CS20" t="s">
+      <c r="CO20">
+        <v>1</v>
+      </c>
+      <c r="CS20" s="13" t="s">
         <v>113</v>
       </c>
       <c r="CT20">
         <v>1</v>
       </c>
-      <c r="DB20" t="s">
+      <c r="CU20">
+        <v>1</v>
+      </c>
+      <c r="DB20" s="13" t="s">
         <v>194</v>
       </c>
       <c r="DC20" s="4">
         <v>1</v>
       </c>
-      <c r="DD20" s="4"/>
+      <c r="DD20" s="4">
+        <v>1</v>
+      </c>
       <c r="DF20" s="4"/>
       <c r="DG20" s="4"/>
       <c r="DH20" t="s">
@@ -8645,7 +8853,7 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AF21" s="2">
         <v>1</v>
@@ -8665,7 +8873,7 @@
         <v>1</v>
       </c>
       <c r="AM21" s="2"/>
-      <c r="AN21" s="2" t="s">
+      <c r="AN21" s="7" t="s">
         <v>871</v>
       </c>
       <c r="AO21">
@@ -8688,14 +8896,16 @@
         <v>1</v>
       </c>
       <c r="AV21" s="4"/>
-      <c r="AW21" s="4" t="s">
+      <c r="AW21" s="15" t="s">
         <v>746</v>
       </c>
       <c r="AX21" s="4">
         <v>1</v>
       </c>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="4" t="s">
+      <c r="AY21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="15" t="s">
         <v>720</v>
       </c>
       <c r="BA21" s="4">
@@ -8704,16 +8914,14 @@
       <c r="BB21" s="4">
         <v>1</v>
       </c>
-      <c r="BC21" s="15" t="s">
-        <v>776</v>
+      <c r="BC21" t="s">
+        <v>800</v>
       </c>
       <c r="BD21" s="4">
         <v>1</v>
       </c>
-      <c r="BE21" s="4">
-        <v>1</v>
-      </c>
-      <c r="BI21" s="10" t="s">
+      <c r="BE21" s="4"/>
+      <c r="BI21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="BJ21" s="4">
@@ -8822,8 +9030,12 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
+      <c r="AE22" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>1</v>
+      </c>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2" t="s">
         <v>692</v>
@@ -8862,7 +9074,7 @@
         <v>1</v>
       </c>
       <c r="AV22" s="4"/>
-      <c r="AW22" s="4" t="s">
+      <c r="AW22" s="15" t="s">
         <v>747</v>
       </c>
       <c r="AX22" s="4">
@@ -8871,23 +9083,25 @@
       <c r="AY22" s="4">
         <v>1</v>
       </c>
-      <c r="AZ22" s="4" t="s">
+      <c r="AZ22" s="15" t="s">
         <v>721</v>
       </c>
       <c r="BA22" s="4">
         <v>1</v>
       </c>
       <c r="BB22" s="4">
-        <v>0</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>777</v>
+        <v>1</v>
+      </c>
+      <c r="BC22" s="13" t="s">
+        <v>801</v>
       </c>
       <c r="BD22" s="4">
         <v>1</v>
       </c>
-      <c r="BE22" s="4"/>
-      <c r="BI22" s="10" t="s">
+      <c r="BE22" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI22" s="8" t="s">
         <v>26</v>
       </c>
       <c r="BJ22" s="4">
@@ -8917,13 +9131,15 @@
       <c r="CT22">
         <v>1</v>
       </c>
-      <c r="DB22" t="s">
+      <c r="DB22" s="13" t="s">
         <v>196</v>
       </c>
       <c r="DC22" s="4">
         <v>1</v>
       </c>
-      <c r="DD22" s="4"/>
+      <c r="DD22" s="4">
+        <v>1</v>
+      </c>
       <c r="DF22" s="4"/>
       <c r="DG22" s="4"/>
       <c r="DH22" t="s">
@@ -8947,13 +9163,15 @@
         <v>1</v>
       </c>
       <c r="DS22" s="4"/>
-      <c r="DT22" t="s">
+      <c r="DT22" s="13" t="s">
         <v>879</v>
       </c>
       <c r="DU22" s="4">
         <v>1</v>
       </c>
-      <c r="DV22" s="4"/>
+      <c r="DV22" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9007,7 +9225,7 @@
         <v>1</v>
       </c>
       <c r="AM23" s="2"/>
-      <c r="AN23" s="2" t="s">
+      <c r="AN23" s="7" t="s">
         <v>873</v>
       </c>
       <c r="AO23">
@@ -9030,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="AV23" s="4"/>
-      <c r="AW23" s="4" t="s">
+      <c r="AW23" s="15" t="s">
         <v>748</v>
       </c>
       <c r="AX23" s="4">
@@ -9039,7 +9257,7 @@
       <c r="AY23" s="4">
         <v>1</v>
       </c>
-      <c r="AZ23" s="4" t="s">
+      <c r="AZ23" s="15" t="s">
         <v>722</v>
       </c>
       <c r="BA23" s="4">
@@ -9048,16 +9266,14 @@
       <c r="BB23" s="4">
         <v>1</v>
       </c>
-      <c r="BC23" s="15" t="s">
-        <v>778</v>
+      <c r="BC23" t="s">
+        <v>802</v>
       </c>
       <c r="BD23" s="4">
         <v>1</v>
       </c>
-      <c r="BE23" s="4">
-        <v>1</v>
-      </c>
-      <c r="BI23" s="10" t="s">
+      <c r="BE23" s="4"/>
+      <c r="BI23" s="8" t="s">
         <v>31</v>
       </c>
       <c r="BJ23" s="4">
@@ -9126,7 +9342,7 @@
       <c r="DV23" s="4"/>
     </row>
     <row r="24" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2">
@@ -9179,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="AM24" s="2"/>
-      <c r="AN24" s="2" t="s">
+      <c r="AN24" s="7" t="s">
         <v>874</v>
       </c>
       <c r="AO24">
@@ -9202,14 +9418,16 @@
         <v>1</v>
       </c>
       <c r="AV24" s="4"/>
-      <c r="AW24" s="4" t="s">
+      <c r="AW24" s="15" t="s">
         <v>749</v>
       </c>
       <c r="AX24" s="4">
         <v>1</v>
       </c>
-      <c r="AY24" s="4"/>
-      <c r="AZ24" s="4" t="s">
+      <c r="AY24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="15" t="s">
         <v>723</v>
       </c>
       <c r="BA24" s="4">
@@ -9219,13 +9437,13 @@
         <v>1</v>
       </c>
       <c r="BC24" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="BD24" s="4">
         <v>1</v>
       </c>
       <c r="BE24" s="4"/>
-      <c r="BI24" s="10" t="s">
+      <c r="BI24" s="8" t="s">
         <v>37</v>
       </c>
       <c r="BJ24" s="4">
@@ -9249,13 +9467,15 @@
       <c r="CK24">
         <v>10</v>
       </c>
-      <c r="DB24" t="s">
+      <c r="DB24" s="13" t="s">
         <v>198</v>
       </c>
       <c r="DC24" s="4">
         <v>1</v>
       </c>
-      <c r="DD24" s="4"/>
+      <c r="DD24" s="4">
+        <v>1</v>
+      </c>
       <c r="DH24" t="s">
         <v>284</v>
       </c>
@@ -9346,7 +9566,7 @@
       <c r="AP25">
         <v>0</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AQ25" s="13" t="s">
         <v>368</v>
       </c>
       <c r="AR25" s="4">
@@ -9362,7 +9582,7 @@
         <v>1</v>
       </c>
       <c r="AV25" s="4"/>
-      <c r="AW25" s="4" t="s">
+      <c r="AW25" s="15" t="s">
         <v>750</v>
       </c>
       <c r="AX25" s="4">
@@ -9371,23 +9591,25 @@
       <c r="AY25" s="4">
         <v>1</v>
       </c>
-      <c r="AZ25" s="4" t="s">
+      <c r="AZ25" s="15" t="s">
         <v>724</v>
       </c>
       <c r="BA25" s="4">
         <v>1</v>
       </c>
       <c r="BB25" s="4">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="s">
-        <v>780</v>
+        <v>1</v>
+      </c>
+      <c r="BC25" s="13" t="s">
+        <v>804</v>
       </c>
       <c r="BD25" s="4">
         <v>1</v>
       </c>
-      <c r="BE25" s="4"/>
-      <c r="BI25" s="10" t="s">
+      <c r="BE25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI25" s="8" t="s">
         <v>40</v>
       </c>
       <c r="BJ25" s="4">
@@ -9411,13 +9633,15 @@
       <c r="CK25">
         <v>9</v>
       </c>
-      <c r="DB25" t="s">
+      <c r="DB25" s="13" t="s">
         <v>199</v>
       </c>
       <c r="DC25" s="4">
         <v>1</v>
       </c>
-      <c r="DD25" s="4"/>
+      <c r="DD25" s="4">
+        <v>1</v>
+      </c>
       <c r="DH25" t="s">
         <v>285</v>
       </c>
@@ -9504,13 +9728,15 @@
       <c r="AP26">
         <v>0</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AQ26" s="13" t="s">
         <v>369</v>
       </c>
       <c r="AR26" s="4">
         <v>1</v>
       </c>
-      <c r="AS26" s="4"/>
+      <c r="AS26" s="4">
+        <v>1</v>
+      </c>
       <c r="AT26" t="s">
         <v>340</v>
       </c>
@@ -9518,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="AV26" s="4"/>
-      <c r="AW26" s="4" t="s">
+      <c r="AW26" s="15" t="s">
         <v>751</v>
       </c>
       <c r="AX26" s="4">
@@ -9527,7 +9753,7 @@
       <c r="AY26" s="4">
         <v>1</v>
       </c>
-      <c r="AZ26" s="4" t="s">
+      <c r="AZ26" s="15" t="s">
         <v>725</v>
       </c>
       <c r="BA26" s="4">
@@ -9537,14 +9763,12 @@
         <v>1</v>
       </c>
       <c r="BC26" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="BD26" s="4">
         <v>1</v>
       </c>
-      <c r="BE26" s="4">
-        <v>1</v>
-      </c>
+      <c r="BE26" s="4"/>
       <c r="BU26" s="2"/>
       <c r="BV26" s="2"/>
       <c r="BW26" s="2"/>
@@ -9563,13 +9787,15 @@
       <c r="CK26">
         <v>9</v>
       </c>
-      <c r="DB26" t="s">
+      <c r="DB26" s="13" t="s">
         <v>200</v>
       </c>
       <c r="DC26" s="4">
         <v>1</v>
       </c>
-      <c r="DD26" s="4"/>
+      <c r="DD26" s="4">
+        <v>1</v>
+      </c>
       <c r="DH26" t="s">
         <v>286</v>
       </c>
@@ -9650,7 +9876,7 @@
       <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
-      <c r="AQ27" t="s">
+      <c r="AQ27" s="13" t="s">
         <v>370</v>
       </c>
       <c r="AR27" s="4">
@@ -9673,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="AY27" s="4"/>
-      <c r="AZ27" s="4" t="s">
+      <c r="AZ27" s="15" t="s">
         <v>726</v>
       </c>
       <c r="BA27" s="4">
@@ -9682,13 +9908,15 @@
       <c r="BB27" s="4">
         <v>1</v>
       </c>
-      <c r="BC27" t="s">
-        <v>782</v>
+      <c r="BC27" s="13" t="s">
+        <v>770</v>
       </c>
       <c r="BD27" s="4">
         <v>1</v>
       </c>
-      <c r="BE27" s="4"/>
+      <c r="BE27" s="4">
+        <v>1</v>
+      </c>
       <c r="BU27" s="2"/>
       <c r="BV27" s="2"/>
       <c r="BW27" s="2"/>
@@ -9701,13 +9929,15 @@
       <c r="CD27" s="2"/>
       <c r="CE27" s="2"/>
       <c r="CF27" s="2"/>
-      <c r="DB27" t="s">
+      <c r="DB27" s="13" t="s">
         <v>201</v>
       </c>
       <c r="DC27" s="4">
         <v>1</v>
       </c>
-      <c r="DD27" s="4"/>
+      <c r="DD27" s="4">
+        <v>1</v>
+      </c>
       <c r="DH27" t="s">
         <v>287</v>
       </c>
@@ -9785,7 +10015,7 @@
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
-      <c r="AQ28" t="s">
+      <c r="AQ28" s="13" t="s">
         <v>371</v>
       </c>
       <c r="AR28" s="4">
@@ -9801,18 +10031,20 @@
         <v>1</v>
       </c>
       <c r="AV28" s="4"/>
-      <c r="AW28" s="4" t="s">
+      <c r="AW28" s="15" t="s">
         <v>753</v>
       </c>
       <c r="AX28" s="4">
         <v>1</v>
       </c>
-      <c r="AY28" s="4"/>
+      <c r="AY28" s="4">
+        <v>1</v>
+      </c>
       <c r="AZ28" s="4"/>
       <c r="BA28" s="4"/>
       <c r="BB28" s="4"/>
-      <c r="BC28" s="15" t="s">
-        <v>783</v>
+      <c r="BC28" s="13" t="s">
+        <v>771</v>
       </c>
       <c r="BD28" s="4">
         <v>1</v>
@@ -9832,13 +10064,15 @@
       <c r="CD28" s="2"/>
       <c r="CE28" s="2"/>
       <c r="CF28" s="2"/>
-      <c r="DB28" t="s">
+      <c r="DB28" s="13" t="s">
         <v>202</v>
       </c>
       <c r="DC28" s="4">
         <v>1</v>
       </c>
-      <c r="DD28" s="4"/>
+      <c r="DD28" s="4">
+        <v>1</v>
+      </c>
       <c r="DH28" t="s">
         <v>288</v>
       </c>
@@ -9930,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="AV29" s="4"/>
-      <c r="AW29" s="4" t="s">
+      <c r="AW29" s="15" t="s">
         <v>754</v>
       </c>
       <c r="AX29" s="4">
@@ -9942,15 +10176,13 @@
       <c r="AZ29" s="4"/>
       <c r="BA29" s="4"/>
       <c r="BB29" s="4"/>
-      <c r="BC29" s="15" t="s">
-        <v>784</v>
+      <c r="BC29" t="s">
+        <v>772</v>
       </c>
       <c r="BD29" s="4">
         <v>1</v>
       </c>
-      <c r="BE29" s="4">
-        <v>1</v>
-      </c>
+      <c r="BE29" s="4"/>
       <c r="BU29" s="2"/>
       <c r="BV29" s="2"/>
       <c r="BW29" s="2"/>
@@ -9963,13 +10195,15 @@
       <c r="CD29" s="2"/>
       <c r="CE29" s="2"/>
       <c r="CF29" s="2"/>
-      <c r="DB29" t="s">
+      <c r="DB29" s="13" t="s">
         <v>203</v>
       </c>
       <c r="DC29" s="4">
         <v>1</v>
       </c>
-      <c r="DD29" s="4"/>
+      <c r="DD29" s="4">
+        <v>1</v>
+      </c>
       <c r="DH29" t="s">
         <v>289</v>
       </c>
@@ -10043,23 +10277,27 @@
         <v>1</v>
       </c>
       <c r="AS30" s="4"/>
-      <c r="AW30" s="4" t="s">
+      <c r="AW30" s="15" t="s">
         <v>755</v>
       </c>
       <c r="AX30" s="4">
         <v>1</v>
       </c>
-      <c r="AY30" s="4"/>
+      <c r="AY30" s="4">
+        <v>1</v>
+      </c>
       <c r="AZ30" s="4"/>
       <c r="BA30" s="4"/>
       <c r="BB30" s="4"/>
-      <c r="BC30" t="s">
-        <v>785</v>
+      <c r="BC30" s="13" t="s">
+        <v>773</v>
       </c>
       <c r="BD30" s="4">
         <v>1</v>
       </c>
-      <c r="BE30" s="4"/>
+      <c r="BE30" s="4">
+        <v>1</v>
+      </c>
       <c r="BU30" s="2"/>
       <c r="BV30" s="2"/>
       <c r="BW30" s="2"/>
@@ -10072,13 +10310,15 @@
       <c r="CD30" s="2"/>
       <c r="CE30" s="2"/>
       <c r="CF30" s="2"/>
-      <c r="DB30" t="s">
+      <c r="DB30" s="13" t="s">
         <v>204</v>
       </c>
       <c r="DC30" s="4">
         <v>1</v>
       </c>
-      <c r="DD30" s="4"/>
+      <c r="DD30" s="4">
+        <v>1</v>
+      </c>
       <c r="DH30" t="s">
         <v>290</v>
       </c>
@@ -10152,7 +10392,7 @@
         <v>1</v>
       </c>
       <c r="AS31" s="4"/>
-      <c r="AW31" s="4" t="s">
+      <c r="AW31" s="15" t="s">
         <v>756</v>
       </c>
       <c r="AX31" s="4">
@@ -10165,14 +10405,12 @@
       <c r="BA31" s="4"/>
       <c r="BB31" s="4"/>
       <c r="BC31" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="BD31" s="4">
         <v>1</v>
       </c>
-      <c r="BE31" s="4">
-        <v>1</v>
-      </c>
+      <c r="BE31" s="4"/>
       <c r="BU31" s="2"/>
       <c r="BV31" s="2"/>
       <c r="BW31" s="2"/>
@@ -10185,13 +10423,15 @@
       <c r="CD31" s="2"/>
       <c r="CE31" s="2"/>
       <c r="CF31" s="2"/>
-      <c r="DB31" t="s">
+      <c r="DB31" s="13" t="s">
         <v>205</v>
       </c>
       <c r="DC31" s="4">
         <v>1</v>
       </c>
-      <c r="DD31" s="4"/>
+      <c r="DD31" s="4">
+        <v>1</v>
+      </c>
       <c r="DH31" t="s">
         <v>291</v>
       </c>
@@ -10268,8 +10508,8 @@
       <c r="AZ32" s="4"/>
       <c r="BA32" s="4"/>
       <c r="BB32" s="4"/>
-      <c r="BC32" s="15" t="s">
-        <v>787</v>
+      <c r="BC32" s="13" t="s">
+        <v>775</v>
       </c>
       <c r="BD32" s="4">
         <v>1</v>
@@ -10289,13 +10529,15 @@
       <c r="CD32" s="2"/>
       <c r="CE32" s="2"/>
       <c r="CF32" s="2"/>
-      <c r="DB32" t="s">
+      <c r="DB32" s="13" t="s">
         <v>206</v>
       </c>
       <c r="DC32" s="4">
         <v>1</v>
       </c>
-      <c r="DD32" s="4"/>
+      <c r="DD32" s="4">
+        <v>1</v>
+      </c>
       <c r="DH32" t="s">
         <v>292</v>
       </c>
@@ -10372,13 +10614,15 @@
       <c r="AZ33" s="4"/>
       <c r="BA33" s="4"/>
       <c r="BB33" s="4"/>
-      <c r="BC33" t="s">
-        <v>788</v>
+      <c r="BC33" s="13" t="s">
+        <v>776</v>
       </c>
       <c r="BD33" s="4">
         <v>1</v>
       </c>
-      <c r="BE33" s="4"/>
+      <c r="BE33" s="4">
+        <v>1</v>
+      </c>
       <c r="BU33" s="2"/>
       <c r="BV33" s="2"/>
       <c r="BW33" s="2"/>
@@ -10391,13 +10635,15 @@
       <c r="CD33" s="2"/>
       <c r="CE33" s="2"/>
       <c r="CF33" s="2"/>
-      <c r="DB33" t="s">
+      <c r="DB33" s="13" t="s">
         <v>207</v>
       </c>
       <c r="DC33" s="4">
         <v>1</v>
       </c>
-      <c r="DD33" s="4"/>
+      <c r="DD33" s="4">
+        <v>1</v>
+      </c>
       <c r="DH33" t="s">
         <v>293</v>
       </c>
@@ -10464,7 +10710,7 @@
         <v>1</v>
       </c>
       <c r="AS34" s="4"/>
-      <c r="AW34" s="4" t="s">
+      <c r="AW34" s="15" t="s">
         <v>894</v>
       </c>
       <c r="AX34" s="4">
@@ -10477,7 +10723,7 @@
       <c r="BA34" s="4"/>
       <c r="BB34" s="4"/>
       <c r="BC34" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="BD34" s="4">
         <v>1</v>
@@ -10495,13 +10741,15 @@
       <c r="CD34" s="2"/>
       <c r="CE34" s="2"/>
       <c r="CF34" s="2"/>
-      <c r="DB34" t="s">
+      <c r="DB34" s="13" t="s">
         <v>208</v>
       </c>
       <c r="DC34" s="4">
         <v>1</v>
       </c>
-      <c r="DD34" s="4"/>
+      <c r="DD34" s="4">
+        <v>1</v>
+      </c>
       <c r="DH34" t="s">
         <v>294</v>
       </c>
@@ -10578,8 +10826,8 @@
       <c r="AZ35" s="4"/>
       <c r="BA35" s="4"/>
       <c r="BB35" s="4"/>
-      <c r="BC35" s="15" t="s">
-        <v>790</v>
+      <c r="BC35" s="13" t="s">
+        <v>778</v>
       </c>
       <c r="BD35" s="4">
         <v>1</v>
@@ -10599,13 +10847,15 @@
       <c r="CD35" s="2"/>
       <c r="CE35" s="2"/>
       <c r="CF35" s="2"/>
-      <c r="DB35" t="s">
+      <c r="DB35" s="13" t="s">
         <v>209</v>
       </c>
       <c r="DC35" s="4">
         <v>1</v>
       </c>
-      <c r="DD35" s="4"/>
+      <c r="DD35" s="4">
+        <v>1</v>
+      </c>
       <c r="DH35" t="s">
         <v>295</v>
       </c>
@@ -10672,18 +10922,20 @@
         <v>1</v>
       </c>
       <c r="AS36" s="4"/>
-      <c r="AW36" s="4" t="s">
+      <c r="AW36" s="15" t="s">
         <v>896</v>
       </c>
       <c r="AX36" s="4">
         <v>1</v>
       </c>
-      <c r="AY36" s="4"/>
+      <c r="AY36" s="4">
+        <v>1</v>
+      </c>
       <c r="AZ36" s="4"/>
       <c r="BA36" s="4"/>
       <c r="BB36" s="4"/>
-      <c r="BC36" s="15" t="s">
-        <v>791</v>
+      <c r="BC36" s="13" t="s">
+        <v>779</v>
       </c>
       <c r="BD36" s="4">
         <v>1</v>
@@ -10703,13 +10955,15 @@
       <c r="CD36" s="2"/>
       <c r="CE36" s="2"/>
       <c r="CF36" s="2"/>
-      <c r="DB36" t="s">
+      <c r="DB36" s="13" t="s">
         <v>210</v>
       </c>
       <c r="DC36" s="4">
         <v>1</v>
       </c>
-      <c r="DD36" s="4"/>
+      <c r="DD36" s="4">
+        <v>1</v>
+      </c>
       <c r="DH36" t="s">
         <v>296</v>
       </c>
@@ -10787,7 +11041,7 @@
       <c r="BA37" s="4"/>
       <c r="BB37" s="4"/>
       <c r="BC37" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="BD37" s="4">
         <v>1</v>
@@ -10805,13 +11059,15 @@
       <c r="CD37" s="2"/>
       <c r="CE37" s="2"/>
       <c r="CF37" s="2"/>
-      <c r="DB37" t="s">
+      <c r="DB37" s="13" t="s">
         <v>211</v>
       </c>
       <c r="DC37" s="4">
         <v>1</v>
       </c>
-      <c r="DD37" s="4"/>
+      <c r="DD37" s="4">
+        <v>1</v>
+      </c>
       <c r="DH37" t="s">
         <v>297</v>
       </c>
@@ -10884,8 +11140,8 @@
       <c r="AZ38" s="4"/>
       <c r="BA38" s="4"/>
       <c r="BB38" s="4"/>
-      <c r="BC38" s="15" t="s">
-        <v>793</v>
+      <c r="BC38" s="13" t="s">
+        <v>781</v>
       </c>
       <c r="BD38" s="4">
         <v>1</v>
@@ -10905,13 +11161,15 @@
       <c r="CD38" s="2"/>
       <c r="CE38" s="2"/>
       <c r="CF38" s="2"/>
-      <c r="DB38" t="s">
+      <c r="DB38" s="13" t="s">
         <v>212</v>
       </c>
       <c r="DC38" s="4">
         <v>1</v>
       </c>
-      <c r="DD38" s="4"/>
+      <c r="DD38" s="4">
+        <v>1</v>
+      </c>
       <c r="DN38" t="s">
         <v>421</v>
       </c>
@@ -10977,15 +11235,13 @@
       <c r="AZ39" s="4"/>
       <c r="BA39" s="4"/>
       <c r="BB39" s="4"/>
-      <c r="BC39" s="15" t="s">
-        <v>794</v>
+      <c r="BC39" t="s">
+        <v>782</v>
       </c>
       <c r="BD39" s="4">
         <v>1</v>
       </c>
-      <c r="BE39" s="4">
-        <v>1</v>
-      </c>
+      <c r="BE39" s="4"/>
       <c r="BU39" s="2"/>
       <c r="BV39" s="2"/>
       <c r="BW39" s="2"/>
@@ -10998,13 +11254,15 @@
       <c r="CD39" s="2"/>
       <c r="CE39" s="2"/>
       <c r="CF39" s="2"/>
-      <c r="DB39" t="s">
+      <c r="DB39" s="13" t="s">
         <v>213</v>
       </c>
       <c r="DC39" s="4">
         <v>1</v>
       </c>
-      <c r="DD39" s="4"/>
+      <c r="DD39" s="4">
+        <v>1</v>
+      </c>
       <c r="DN39" t="s">
         <v>422</v>
       </c>
@@ -11070,13 +11328,15 @@
       <c r="AZ40" s="4"/>
       <c r="BA40" s="4"/>
       <c r="BB40" s="4"/>
-      <c r="BC40" t="s">
-        <v>795</v>
+      <c r="BC40" s="13" t="s">
+        <v>783</v>
       </c>
       <c r="BD40" s="4">
         <v>1</v>
       </c>
-      <c r="BE40" s="4"/>
+      <c r="BE40" s="4">
+        <v>1</v>
+      </c>
       <c r="BU40" s="2"/>
       <c r="BV40" s="2"/>
       <c r="BW40" s="2"/>
@@ -11089,13 +11349,15 @@
       <c r="CD40" s="2"/>
       <c r="CE40" s="2"/>
       <c r="CF40" s="2"/>
-      <c r="DB40" t="s">
+      <c r="DB40" s="13" t="s">
         <v>214</v>
       </c>
       <c r="DC40" s="4">
         <v>1</v>
       </c>
-      <c r="DD40" s="4"/>
+      <c r="DD40" s="4">
+        <v>1</v>
+      </c>
       <c r="DN40" t="s">
         <v>423</v>
       </c>
@@ -11161,8 +11423,8 @@
       <c r="AZ41" s="4"/>
       <c r="BA41" s="4"/>
       <c r="BB41" s="4"/>
-      <c r="BC41" s="15" t="s">
-        <v>796</v>
+      <c r="BC41" s="13" t="s">
+        <v>784</v>
       </c>
       <c r="BD41" s="4">
         <v>1</v>
@@ -11241,15 +11503,13 @@
       <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
-      <c r="BC42" s="15" t="s">
-        <v>797</v>
+      <c r="BC42" t="s">
+        <v>785</v>
       </c>
       <c r="BD42" s="4">
         <v>1</v>
       </c>
-      <c r="BE42" s="4">
-        <v>1</v>
-      </c>
+      <c r="BE42" s="4"/>
       <c r="BU42" s="2"/>
       <c r="BV42" s="2"/>
       <c r="BW42" s="2"/>
@@ -11262,13 +11522,15 @@
       <c r="CD42" s="2"/>
       <c r="CE42" s="2"/>
       <c r="CF42" s="2"/>
-      <c r="DB42" t="s">
+      <c r="DB42" s="13" t="s">
         <v>216</v>
       </c>
       <c r="DC42" s="4">
         <v>1</v>
       </c>
-      <c r="DD42" s="4"/>
+      <c r="DD42" s="4">
+        <v>1</v>
+      </c>
       <c r="DN42" t="s">
         <v>425</v>
       </c>
@@ -11321,8 +11583,8 @@
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
-      <c r="BC43" s="15" t="s">
-        <v>798</v>
+      <c r="BC43" s="13" t="s">
+        <v>786</v>
       </c>
       <c r="BD43" s="4">
         <v>1</v>
@@ -11401,8 +11663,8 @@
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
-      <c r="BC44" s="15" t="s">
-        <v>799</v>
+      <c r="BC44" s="13" t="s">
+        <v>787</v>
       </c>
       <c r="BD44" s="4">
         <v>1</v>
@@ -11422,13 +11684,15 @@
       <c r="CD44" s="2"/>
       <c r="CE44" s="2"/>
       <c r="CF44" s="2"/>
-      <c r="DB44" t="s">
+      <c r="DB44" s="13" t="s">
         <v>218</v>
       </c>
       <c r="DC44" s="4">
         <v>1</v>
       </c>
-      <c r="DD44" s="4"/>
+      <c r="DD44" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -11475,7 +11739,7 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
       <c r="BC45" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="BD45" s="4">
         <v>1</v>
@@ -11545,15 +11809,13 @@
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
-      <c r="BC46" s="15" t="s">
-        <v>801</v>
+      <c r="BC46" t="s">
+        <v>789</v>
       </c>
       <c r="BD46" s="4">
         <v>1</v>
       </c>
-      <c r="BE46" s="4">
-        <v>1</v>
-      </c>
+      <c r="BE46" s="4"/>
       <c r="BU46" s="2"/>
       <c r="BV46" s="2"/>
       <c r="BW46" s="2"/>
@@ -11566,13 +11828,15 @@
       <c r="CD46" s="2"/>
       <c r="CE46" s="2"/>
       <c r="CF46" s="2"/>
-      <c r="DB46" t="s">
+      <c r="DB46" s="13" t="s">
         <v>220</v>
       </c>
       <c r="DC46" s="4">
         <v>1</v>
       </c>
-      <c r="DD46" s="4"/>
+      <c r="DD46" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -11618,13 +11882,15 @@
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
-      <c r="BC47" t="s">
-        <v>802</v>
+      <c r="BC47" s="13" t="s">
+        <v>790</v>
       </c>
       <c r="BD47" s="4">
         <v>1</v>
       </c>
-      <c r="BE47" s="4"/>
+      <c r="BE47" s="4">
+        <v>1</v>
+      </c>
       <c r="BU47" s="2"/>
       <c r="BV47" s="2"/>
       <c r="BW47" s="2"/>
@@ -11689,13 +11955,15 @@
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
-      <c r="BC48" t="s">
-        <v>803</v>
+      <c r="BC48" s="13" t="s">
+        <v>791</v>
       </c>
       <c r="BD48" s="4">
         <v>1</v>
       </c>
-      <c r="BE48" s="4"/>
+      <c r="BE48" s="4">
+        <v>1</v>
+      </c>
       <c r="BU48" s="2"/>
       <c r="BV48" s="2"/>
       <c r="BW48" s="2"/>
@@ -11708,13 +11976,15 @@
       <c r="CD48" s="2"/>
       <c r="CE48" s="2"/>
       <c r="CF48" s="2"/>
-      <c r="DB48" t="s">
+      <c r="DB48" s="13" t="s">
         <v>222</v>
       </c>
       <c r="DC48" s="4">
         <v>1</v>
       </c>
-      <c r="DD48" s="4"/>
+      <c r="DD48" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -11760,15 +12030,13 @@
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
       <c r="AP49" s="2"/>
-      <c r="BC49" s="15" t="s">
-        <v>804</v>
+      <c r="BC49" t="s">
+        <v>792</v>
       </c>
       <c r="BD49" s="4">
         <v>1</v>
       </c>
-      <c r="BE49" s="4">
-        <v>1</v>
-      </c>
+      <c r="BE49" s="4"/>
       <c r="BU49" s="2"/>
       <c r="BV49" s="2"/>
       <c r="BW49" s="2"/>
@@ -11781,13 +12049,15 @@
       <c r="CD49" s="2"/>
       <c r="CE49" s="2"/>
       <c r="CF49" s="2"/>
-      <c r="DB49" t="s">
+      <c r="DB49" s="13" t="s">
         <v>223</v>
       </c>
       <c r="DC49" s="4">
         <v>1</v>
       </c>
-      <c r="DD49" s="4"/>
+      <c r="DD49" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -11833,8 +12103,8 @@
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
-      <c r="BC50" s="15" t="s">
-        <v>805</v>
+      <c r="BC50" s="13" t="s">
+        <v>757</v>
       </c>
       <c r="BD50" s="4">
         <v>1</v>
@@ -11854,13 +12124,15 @@
       <c r="CD50" s="2"/>
       <c r="CE50" s="2"/>
       <c r="CF50" s="2"/>
-      <c r="DB50" t="s">
+      <c r="DB50" s="13" t="s">
         <v>224</v>
       </c>
       <c r="DC50" s="4">
         <v>1</v>
       </c>
-      <c r="DD50" s="4"/>
+      <c r="DD50" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -11906,8 +12178,8 @@
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
-      <c r="BC51" s="15" t="s">
-        <v>806</v>
+      <c r="BC51" s="13" t="s">
+        <v>758</v>
       </c>
       <c r="BD51" s="4">
         <v>1</v>
@@ -11927,13 +12199,15 @@
       <c r="CD51" s="2"/>
       <c r="CE51" s="2"/>
       <c r="CF51" s="2"/>
-      <c r="DB51" t="s">
+      <c r="DB51" s="13" t="s">
         <v>225</v>
       </c>
       <c r="DC51" s="4">
         <v>1</v>
       </c>
-      <c r="DD51" s="4"/>
+      <c r="DD51" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -11979,8 +12253,8 @@
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
       <c r="AP52" s="2"/>
-      <c r="BC52" s="15" t="s">
-        <v>807</v>
+      <c r="BC52" s="13" t="s">
+        <v>759</v>
       </c>
       <c r="BD52" s="4">
         <v>1</v>
@@ -12000,13 +12274,15 @@
       <c r="CD52" s="2"/>
       <c r="CE52" s="2"/>
       <c r="CF52" s="2"/>
-      <c r="DB52" t="s">
+      <c r="DB52" s="13" t="s">
         <v>226</v>
       </c>
       <c r="DC52" s="4">
         <v>1</v>
       </c>
-      <c r="DD52" s="4"/>
+      <c r="DD52" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -12053,12 +12329,14 @@
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
       <c r="BC53" t="s">
-        <v>808</v>
+        <v>901</v>
       </c>
       <c r="BD53" s="4">
         <v>1</v>
       </c>
-      <c r="BE53" s="4"/>
+      <c r="BE53" s="4">
+        <v>1</v>
+      </c>
       <c r="BU53" s="2"/>
       <c r="BV53" s="2"/>
       <c r="BW53" s="2"/>
@@ -12071,13 +12349,15 @@
       <c r="CD53" s="2"/>
       <c r="CE53" s="2"/>
       <c r="CF53" s="2"/>
-      <c r="DB53" t="s">
+      <c r="DB53" s="13" t="s">
         <v>227</v>
       </c>
       <c r="DC53" s="4">
         <v>1</v>
       </c>
-      <c r="DD53" s="4"/>
+      <c r="DD53" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -12123,15 +12403,13 @@
       <c r="AN54" s="2"/>
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
-      <c r="BC54" s="15" t="s">
-        <v>809</v>
+      <c r="BC54" t="s">
+        <v>760</v>
       </c>
       <c r="BD54" s="4">
         <v>1</v>
       </c>
-      <c r="BE54" s="4">
-        <v>1</v>
-      </c>
+      <c r="BE54" s="4"/>
       <c r="BU54" s="2"/>
       <c r="BV54" s="2"/>
       <c r="BW54" s="2"/>
@@ -12144,13 +12422,15 @@
       <c r="CD54" s="2"/>
       <c r="CE54" s="2"/>
       <c r="CF54" s="2"/>
-      <c r="DB54" t="s">
+      <c r="DB54" s="13" t="s">
         <v>228</v>
       </c>
       <c r="DC54" s="4">
         <v>1</v>
       </c>
-      <c r="DD54" s="4"/>
+      <c r="DD54" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -12197,7 +12477,7 @@
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
       <c r="BC55" t="s">
-        <v>810</v>
+        <v>761</v>
       </c>
       <c r="BD55" s="4">
         <v>1</v>
@@ -12215,13 +12495,15 @@
       <c r="CD55" s="2"/>
       <c r="CE55" s="2"/>
       <c r="CF55" s="2"/>
-      <c r="DB55" t="s">
+      <c r="DB55" s="13" t="s">
         <v>229</v>
       </c>
       <c r="DC55" s="4">
         <v>1</v>
       </c>
-      <c r="DD55" s="4"/>
+      <c r="DD55" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -12267,13 +12549,15 @@
       <c r="AN56" s="2"/>
       <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
-      <c r="BC56" t="s">
-        <v>811</v>
+      <c r="BC56" s="13" t="s">
+        <v>762</v>
       </c>
       <c r="BD56" s="4">
         <v>1</v>
       </c>
-      <c r="BE56" s="4"/>
+      <c r="BE56" s="4">
+        <v>1</v>
+      </c>
       <c r="BU56" s="2"/>
       <c r="BV56" s="2"/>
       <c r="BW56" s="2"/>
@@ -12286,13 +12570,15 @@
       <c r="CD56" s="2"/>
       <c r="CE56" s="2"/>
       <c r="CF56" s="2"/>
-      <c r="DB56" t="s">
+      <c r="DB56" s="13" t="s">
         <v>230</v>
       </c>
       <c r="DC56" s="4">
         <v>1</v>
       </c>
-      <c r="DD56" s="4"/>
+      <c r="DD56" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:108" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
@@ -12333,13 +12619,15 @@
       <c r="AN57" s="2"/>
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
-      <c r="BC57" t="s">
-        <v>812</v>
+      <c r="BC57" s="13" t="s">
+        <v>763</v>
       </c>
       <c r="BD57" s="4">
         <v>1</v>
       </c>
-      <c r="BE57" s="4"/>
+      <c r="BE57" s="4">
+        <v>1</v>
+      </c>
       <c r="BU57" s="2"/>
       <c r="BV57" s="2"/>
       <c r="BW57" s="2"/>
@@ -12352,13 +12640,15 @@
       <c r="CD57" s="2"/>
       <c r="CE57" s="2"/>
       <c r="CF57" s="2"/>
-      <c r="DB57" t="s">
+      <c r="DB57" s="13" t="s">
         <v>231</v>
       </c>
       <c r="DC57" s="4">
         <v>1</v>
       </c>
-      <c r="DD57" s="4"/>
+      <c r="DD57" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
@@ -12400,8 +12690,8 @@
       <c r="AN58" s="2"/>
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
-      <c r="BC58" s="15" t="s">
-        <v>813</v>
+      <c r="BC58" s="13" t="s">
+        <v>764</v>
       </c>
       <c r="BD58" s="4">
         <v>1</v>
@@ -12424,13 +12714,15 @@
       <c r="CD58" s="2"/>
       <c r="CE58" s="2"/>
       <c r="CF58" s="2"/>
-      <c r="DB58" t="s">
+      <c r="DB58" s="13" t="s">
         <v>232</v>
       </c>
       <c r="DC58" s="4">
         <v>1</v>
       </c>
-      <c r="DD58" s="4"/>
+      <c r="DD58" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
@@ -12469,20 +12761,24 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
       <c r="AJ59" s="2"/>
-      <c r="BC59" t="s">
-        <v>814</v>
+      <c r="BC59" s="13" t="s">
+        <v>765</v>
       </c>
       <c r="BD59" s="4">
         <v>1</v>
       </c>
-      <c r="BE59" s="4"/>
-      <c r="DB59" t="s">
+      <c r="BE59" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB59" s="13" t="s">
         <v>233</v>
       </c>
       <c r="DC59" s="4">
         <v>1</v>
       </c>
-      <c r="DD59" s="4"/>
+      <c r="DD59" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
@@ -12522,19 +12818,21 @@
       <c r="AI60" s="2"/>
       <c r="AJ60" s="2"/>
       <c r="BC60" t="s">
-        <v>815</v>
+        <v>766</v>
       </c>
       <c r="BD60" s="4">
         <v>1</v>
       </c>
       <c r="BE60" s="4"/>
-      <c r="DB60" t="s">
+      <c r="DB60" s="13" t="s">
         <v>234</v>
       </c>
       <c r="DC60" s="4">
         <v>1</v>
       </c>
-      <c r="DD60" s="4"/>
+      <c r="DD60" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
@@ -12574,7 +12872,7 @@
       <c r="AI61" s="2"/>
       <c r="AJ61" s="2"/>
       <c r="BC61" t="s">
-        <v>816</v>
+        <v>767</v>
       </c>
       <c r="BD61" s="4">
         <v>1</v>
@@ -12625,20 +12923,24 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
       <c r="AJ62" s="2"/>
-      <c r="BC62" t="s">
-        <v>817</v>
+      <c r="BC62" s="13" t="s">
+        <v>768</v>
       </c>
       <c r="BD62" s="4">
         <v>1</v>
       </c>
-      <c r="BE62" s="4"/>
-      <c r="DB62" t="s">
+      <c r="BE62" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB62" s="13" t="s">
         <v>236</v>
       </c>
       <c r="DC62" s="4">
         <v>1</v>
       </c>
-      <c r="DD62" s="4"/>
+      <c r="DD62" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:108" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
@@ -12676,13 +12978,15 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
       <c r="AJ63" s="2"/>
-      <c r="BC63" t="s">
-        <v>818</v>
+      <c r="BC63" s="13" t="s">
+        <v>805</v>
       </c>
       <c r="BD63" s="4">
         <v>1</v>
       </c>
-      <c r="BE63" s="4"/>
+      <c r="BE63" s="4">
+        <v>1</v>
+      </c>
       <c r="DB63" t="s">
         <v>237</v>
       </c>
@@ -12727,20 +13031,24 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
       <c r="AJ64" s="2"/>
-      <c r="BC64" t="s">
-        <v>819</v>
+      <c r="BC64" s="13" t="s">
+        <v>806</v>
       </c>
       <c r="BD64" s="4">
         <v>1</v>
       </c>
-      <c r="BE64" s="4"/>
-      <c r="DB64" t="s">
+      <c r="BE64" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB64" s="13" t="s">
         <v>238</v>
       </c>
       <c r="DC64" s="4">
         <v>1</v>
       </c>
-      <c r="DD64" s="4"/>
+      <c r="DD64" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
@@ -12778,20 +13086,24 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
       <c r="AJ65" s="2"/>
-      <c r="BC65" t="s">
-        <v>820</v>
+      <c r="BC65" s="13" t="s">
+        <v>807</v>
       </c>
       <c r="BD65" s="4">
         <v>1</v>
       </c>
-      <c r="BE65" s="4"/>
-      <c r="DB65" t="s">
+      <c r="BE65" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB65" s="13" t="s">
         <v>239</v>
       </c>
       <c r="DC65" s="4">
         <v>1</v>
       </c>
-      <c r="DD65" s="4"/>
+      <c r="DD65" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
@@ -12829,8 +13141,8 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
       <c r="AJ66" s="2"/>
-      <c r="BC66" s="15" t="s">
-        <v>821</v>
+      <c r="BC66" s="13" t="s">
+        <v>808</v>
       </c>
       <c r="BD66" s="4">
         <v>1</v>
@@ -12838,13 +13150,15 @@
       <c r="BE66" s="4">
         <v>1</v>
       </c>
-      <c r="DB66" t="s">
+      <c r="DB66" s="13" t="s">
         <v>240</v>
       </c>
       <c r="DC66" s="4">
         <v>1</v>
       </c>
-      <c r="DD66" s="4"/>
+      <c r="DD66" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
@@ -12882,8 +13196,8 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
       <c r="AJ67" s="2"/>
-      <c r="BC67" s="15" t="s">
-        <v>822</v>
+      <c r="BC67" s="13" t="s">
+        <v>809</v>
       </c>
       <c r="BD67" s="4">
         <v>1</v>
@@ -12936,7 +13250,7 @@
       <c r="AI68" s="2"/>
       <c r="AJ68" s="2"/>
       <c r="BC68" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="BD68" s="4">
         <v>1</v>
@@ -12986,13 +13300,15 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
       <c r="AJ69" s="2"/>
-      <c r="BC69" t="s">
-        <v>824</v>
+      <c r="BC69" s="13" t="s">
+        <v>811</v>
       </c>
       <c r="BD69" s="4">
         <v>1</v>
       </c>
-      <c r="BE69" s="4"/>
+      <c r="BE69" s="4">
+        <v>1</v>
+      </c>
       <c r="DB69" t="s">
         <v>243</v>
       </c>
@@ -13003,23 +13319,25 @@
     </row>
     <row r="70" spans="2:108" x14ac:dyDescent="0.25">
       <c r="BC70" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="BD70" s="4">
         <v>1</v>
       </c>
       <c r="BE70" s="4"/>
-      <c r="DB70" t="s">
+      <c r="DB70" s="13" t="s">
         <v>244</v>
       </c>
       <c r="DC70" s="4">
         <v>1</v>
       </c>
-      <c r="DD70" s="4"/>
+      <c r="DD70" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="2:108" x14ac:dyDescent="0.25">
-      <c r="BC71" s="15" t="s">
-        <v>826</v>
+      <c r="BC71" s="13" t="s">
+        <v>813</v>
       </c>
       <c r="BD71" s="4">
         <v>1</v>
@@ -13037,30 +13355,30 @@
     </row>
     <row r="72" spans="2:108" x14ac:dyDescent="0.25">
       <c r="BC72" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="BD72" s="4">
         <v>1</v>
       </c>
       <c r="BE72" s="4"/>
-      <c r="DB72" t="s">
+      <c r="DB72" s="13" t="s">
         <v>246</v>
       </c>
       <c r="DC72" s="4">
         <v>1</v>
       </c>
-      <c r="DD72" s="4"/>
+      <c r="DD72" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="2:108" x14ac:dyDescent="0.25">
-      <c r="BC73" s="15" t="s">
-        <v>828</v>
+      <c r="BC73" t="s">
+        <v>815</v>
       </c>
       <c r="BD73" s="4">
         <v>1</v>
       </c>
-      <c r="BE73" s="4">
-        <v>1</v>
-      </c>
+      <c r="BE73" s="4"/>
       <c r="DB73" t="s">
         <v>247</v>
       </c>
@@ -13070,13 +13388,22 @@
       <c r="DD73" s="4"/>
     </row>
     <row r="74" spans="2:108" x14ac:dyDescent="0.25">
-      <c r="DB74" t="s">
+      <c r="BC74" t="s">
+        <v>816</v>
+      </c>
+      <c r="BD74" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE74" s="4"/>
+      <c r="DB74" s="13" t="s">
         <v>248</v>
       </c>
       <c r="DC74" s="4">
         <v>1</v>
       </c>
-      <c r="DD74" s="4"/>
+      <c r="DD74" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="2:108" x14ac:dyDescent="0.25">
       <c r="DB75" t="s">
@@ -13088,8 +13415,8 @@
       <c r="DD75" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AE3:AE21">
-    <sortCondition ref="AE21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BC2:BE74">
+    <sortCondition ref="BC2:BC74"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\HadesGame-Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F45532-31BC-43EC-85A5-943524FB426A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637B85CC-A95F-4D25-9CDC-EE983F343D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
+    <workbookView xWindow="-24825" yWindow="900" windowWidth="21600" windowHeight="13275" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2818,7 +2818,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2837,6 +2837,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2850,7 +2856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2874,7 +2880,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3211,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4659E671-0874-FE42-985B-794BDDF20B74}">
   <dimension ref="A1:DY75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DK1" workbookViewId="0">
-      <selection activeCell="DS12" sqref="DS12"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AQ7" sqref="AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3730,7 +3738,9 @@
       <c r="N2" s="2">
         <v>1</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="O2" s="17">
+        <v>1</v>
+      </c>
       <c r="P2" s="5" t="s">
         <v>584</v>
       </c>
@@ -3844,7 +3854,9 @@
       <c r="BD2" s="4">
         <v>1</v>
       </c>
-      <c r="BE2" s="4"/>
+      <c r="BE2" s="17">
+        <v>1</v>
+      </c>
       <c r="BF2" s="8" t="s">
         <v>832</v>
       </c>
@@ -3998,7 +4010,9 @@
       <c r="DO2" s="4">
         <v>1</v>
       </c>
-      <c r="DP2" s="4"/>
+      <c r="DP2" s="17">
+        <v>1</v>
+      </c>
       <c r="DQ2" t="s">
         <v>427</v>
       </c>
@@ -4012,7 +4026,9 @@
       <c r="DU2" s="4">
         <v>1</v>
       </c>
-      <c r="DV2" s="4"/>
+      <c r="DV2" s="17">
+        <v>1</v>
+      </c>
       <c r="DW2" s="13" t="s">
         <v>882</v>
       </c>
@@ -4266,6 +4282,9 @@
       <c r="CQ3">
         <v>1</v>
       </c>
+      <c r="CR3" s="17">
+        <v>1</v>
+      </c>
       <c r="CS3" t="s">
         <v>141</v>
       </c>
@@ -4324,7 +4343,9 @@
       <c r="DO3" s="4">
         <v>1</v>
       </c>
-      <c r="DP3" s="4"/>
+      <c r="DP3" s="17">
+        <v>1</v>
+      </c>
       <c r="DQ3" t="s">
         <v>428</v>
       </c>
@@ -4391,7 +4412,9 @@
       <c r="Q4" s="2">
         <v>1</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="17">
+        <v>1</v>
+      </c>
       <c r="S4" s="6" t="s">
         <v>598</v>
       </c>
@@ -4496,7 +4519,9 @@
       <c r="BD4" s="4">
         <v>1</v>
       </c>
-      <c r="BE4" s="4"/>
+      <c r="BE4" s="17">
+        <v>1</v>
+      </c>
       <c r="BF4" s="8" t="s">
         <v>834</v>
       </c>
@@ -4522,6 +4547,9 @@
       <c r="BP4">
         <v>5</v>
       </c>
+      <c r="BQ4" s="17">
+        <v>1</v>
+      </c>
       <c r="BR4" t="s">
         <v>57</v>
       </c>
@@ -4650,7 +4678,9 @@
       <c r="DO4" s="4">
         <v>1</v>
       </c>
-      <c r="DP4" s="4"/>
+      <c r="DP4" s="17">
+        <v>1</v>
+      </c>
       <c r="DQ4" t="s">
         <v>429</v>
       </c>
@@ -4860,6 +4890,9 @@
       <c r="BP5">
         <v>5</v>
       </c>
+      <c r="BQ5" s="17">
+        <v>1</v>
+      </c>
       <c r="BR5" t="s">
         <v>67</v>
       </c>
@@ -4912,6 +4945,9 @@
         <v>132</v>
       </c>
       <c r="CQ5">
+        <v>1</v>
+      </c>
+      <c r="CR5" s="17">
         <v>1</v>
       </c>
       <c r="CS5" t="s">
@@ -4972,7 +5008,9 @@
       <c r="DO5" s="4">
         <v>1</v>
       </c>
-      <c r="DP5" s="4"/>
+      <c r="DP5" s="17">
+        <v>1</v>
+      </c>
       <c r="DQ5" t="s">
         <v>430</v>
       </c>
@@ -5095,7 +5133,9 @@
       <c r="AI6" s="2">
         <v>1</v>
       </c>
-      <c r="AJ6" s="2"/>
+      <c r="AJ6" s="17">
+        <v>1</v>
+      </c>
       <c r="AK6" s="1" t="s">
         <v>30</v>
       </c>
@@ -5303,7 +5343,9 @@
       <c r="DO6" s="4">
         <v>1</v>
       </c>
-      <c r="DP6" s="4"/>
+      <c r="DP6" s="17">
+        <v>1</v>
+      </c>
       <c r="DQ6" t="s">
         <v>431</v>
       </c>
@@ -5359,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="6" t="s">
         <v>578</v>
       </c>
       <c r="N7" s="2">
@@ -5408,7 +5450,9 @@
       <c r="AC7" s="2">
         <v>1</v>
       </c>
-      <c r="AD7" s="2"/>
+      <c r="AD7" s="17">
+        <v>1</v>
+      </c>
       <c r="AE7" s="6" t="s">
         <v>900</v>
       </c>
@@ -5536,6 +5580,9 @@
       <c r="CQ7">
         <v>1</v>
       </c>
+      <c r="CR7" s="17">
+        <v>1</v>
+      </c>
       <c r="CS7" s="2" t="s">
         <v>143</v>
       </c>
@@ -5594,7 +5641,9 @@
       <c r="DO7" s="4">
         <v>1</v>
       </c>
-      <c r="DP7" s="4"/>
+      <c r="DP7" s="17">
+        <v>1</v>
+      </c>
       <c r="DQ7" s="2" t="s">
         <v>432</v>
       </c>
@@ -5891,7 +5940,9 @@
       <c r="DO8" s="4">
         <v>1</v>
       </c>
-      <c r="DP8" s="4"/>
+      <c r="DP8" s="17">
+        <v>1</v>
+      </c>
       <c r="DQ8" s="2" t="s">
         <v>433</v>
       </c>
@@ -6071,7 +6122,9 @@
       <c r="BD9" s="4">
         <v>1</v>
       </c>
-      <c r="BE9" s="4"/>
+      <c r="BE9" s="17">
+        <v>1</v>
+      </c>
       <c r="BF9" s="8" t="s">
         <v>839</v>
       </c>
@@ -6109,10 +6162,16 @@
       <c r="CN9">
         <v>1</v>
       </c>
+      <c r="CO9" s="17">
+        <v>1</v>
+      </c>
       <c r="CP9" t="s">
         <v>134</v>
       </c>
       <c r="CQ9">
+        <v>1</v>
+      </c>
+      <c r="CR9" s="17">
         <v>1</v>
       </c>
       <c r="CS9" t="s">
@@ -6353,7 +6412,9 @@
       <c r="BD10" s="4">
         <v>1</v>
       </c>
-      <c r="BE10" s="4"/>
+      <c r="BE10" s="17">
+        <v>1</v>
+      </c>
       <c r="BF10" s="8" t="s">
         <v>840</v>
       </c>
@@ -6466,7 +6527,9 @@
       <c r="DO10" s="4">
         <v>1</v>
       </c>
-      <c r="DP10" s="4"/>
+      <c r="DP10" s="17">
+        <v>1</v>
+      </c>
       <c r="DQ10" t="s">
         <v>435</v>
       </c>
@@ -6750,7 +6813,9 @@
       <c r="DO11" s="4">
         <v>1</v>
       </c>
-      <c r="DP11" s="4"/>
+      <c r="DP11" s="17">
+        <v>1</v>
+      </c>
       <c r="DQ11" t="s">
         <v>436</v>
       </c>
@@ -6808,13 +6873,15 @@
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="14" t="s">
         <v>898</v>
       </c>
       <c r="N12" s="2">
         <v>1</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" s="19">
+        <v>1</v>
+      </c>
       <c r="P12" s="14" t="s">
         <v>594</v>
       </c>
@@ -7766,6 +7833,9 @@
         <v>137</v>
       </c>
       <c r="CQ15">
+        <v>1</v>
+      </c>
+      <c r="CR15" s="17">
         <v>1</v>
       </c>
       <c r="CS15" t="s">
@@ -8185,10 +8255,16 @@
       <c r="CQ17">
         <v>1</v>
       </c>
+      <c r="CR17" s="17">
+        <v>1</v>
+      </c>
       <c r="CS17" t="s">
         <v>148</v>
       </c>
       <c r="CT17">
+        <v>1</v>
+      </c>
+      <c r="CU17" s="17">
         <v>1</v>
       </c>
       <c r="CV17" t="s">
@@ -8245,7 +8321,9 @@
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -8487,7 +8565,9 @@
       <c r="AI19" s="2">
         <v>1</v>
       </c>
-      <c r="AJ19" s="2"/>
+      <c r="AJ19" s="17">
+        <v>1</v>
+      </c>
       <c r="AK19" s="1" t="s">
         <v>42</v>
       </c>
@@ -9057,8 +9137,8 @@
       <c r="AO22">
         <v>3</v>
       </c>
-      <c r="AP22">
-        <v>0</v>
+      <c r="AP22" s="17">
+        <v>1</v>
       </c>
       <c r="AQ22" t="s">
         <v>365</v>
@@ -9066,7 +9146,9 @@
       <c r="AR22" s="4">
         <v>1</v>
       </c>
-      <c r="AS22" s="4"/>
+      <c r="AS22" s="18">
+        <v>1</v>
+      </c>
       <c r="AT22" t="s">
         <v>344</v>
       </c>
@@ -9240,7 +9322,9 @@
       <c r="AR23" s="4">
         <v>1</v>
       </c>
-      <c r="AS23" s="4"/>
+      <c r="AS23" s="18">
+        <v>1</v>
+      </c>
       <c r="AT23" t="s">
         <v>337</v>
       </c>
@@ -9401,8 +9485,8 @@
       <c r="AO24">
         <v>3</v>
       </c>
-      <c r="AP24">
-        <v>1</v>
+      <c r="AP24" s="17">
+        <v>2</v>
       </c>
       <c r="AQ24" t="s">
         <v>367</v>
@@ -11036,7 +11120,9 @@
       <c r="AX37" s="4">
         <v>1</v>
       </c>
-      <c r="AY37" s="4"/>
+      <c r="AY37" s="17">
+        <v>1</v>
+      </c>
       <c r="AZ37" s="4"/>
       <c r="BA37" s="4"/>
       <c r="BB37" s="4"/>
@@ -12036,7 +12122,9 @@
       <c r="BD49" s="4">
         <v>1</v>
       </c>
-      <c r="BE49" s="4"/>
+      <c r="BE49" s="18">
+        <v>1</v>
+      </c>
       <c r="BU49" s="2"/>
       <c r="BV49" s="2"/>
       <c r="BW49" s="2"/>
